--- a/足球/足球中奖概率表.xlsx
+++ b/足球/足球中奖概率表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\jingcai\足球\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5E62BE-E485-4A8C-B067-BC07C221A78F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE2E93D-7473-4E26-896B-5047F203ECB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="114" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="214">
   <si>
     <t>赛事预测命中率</t>
   </si>
@@ -1082,8 +1082,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EV26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3491,9 +3491,7 @@
       <c r="Y7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2" t="s">

--- a/足球/足球中奖概率表.xlsx
+++ b/足球/足球中奖概率表.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\jingcai\足球\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE2E93D-7473-4E26-896B-5047F203ECB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="114" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13050" tabRatio="114"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="215">
   <si>
     <t>赛事预测命中率</t>
   </si>
@@ -293,6 +280,12 @@
     <t>阿贾克斯让胜</t>
   </si>
   <si>
+    <t>郝冲</t>
+  </si>
+  <si>
+    <t>戈亚斯胜</t>
+  </si>
+  <si>
     <t>佛罗伦萨负</t>
   </si>
   <si>
@@ -509,9 +502,6 @@
     <t>博塔弗戈让负</t>
   </si>
   <si>
-    <t>西雅图胜</t>
-  </si>
-  <si>
     <t>勒阿弗尔胜</t>
   </si>
   <si>
@@ -560,6 +550,12 @@
     <t>苏维埃翼让胜</t>
   </si>
   <si>
+    <t>墨尔本城让胜</t>
+  </si>
+  <si>
+    <t>墨尔本城让平</t>
+  </si>
+  <si>
     <t>里尔胜</t>
   </si>
   <si>
@@ -644,36 +640,22 @@
     <t>洛城银河胜</t>
   </si>
   <si>
+    <t>千叶市原让胜</t>
+  </si>
+  <si>
     <t>萨迪纳摩负</t>
   </si>
   <si>
     <t>萨迪纳摩胜</t>
   </si>
   <si>
-    <t>西雅图平</t>
-  </si>
-  <si>
-    <t>墨尔本城让胜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨尔本城让负</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郝冲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>戈亚斯胜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>千叶市原让胜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>横滨F</t>
     </r>
     <r>
@@ -681,19 +663,32 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C胜</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西雅图胜</t>
+  </si>
+  <si>
+    <t>西雅图平</t>
+  </si>
+  <si>
+    <t>墨尔本城让负</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -712,35 +707,364 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -776,9 +1100,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -792,6 +1358,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,21 +1370,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1073,137 +1683,136 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EV26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="3" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="11" max="12" width="15" style="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="15" max="16" width="15" style="1" customWidth="1"/>
     <col min="17" max="17" width="7" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="19" max="20" width="15" style="1" customWidth="1"/>
     <col min="21" max="21" width="7" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.08203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.0833333333333" style="1" customWidth="1"/>
     <col min="23" max="24" width="15" style="1" customWidth="1"/>
     <col min="25" max="25" width="7" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="27" max="28" width="15" style="1" customWidth="1"/>
     <col min="29" max="29" width="7" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="31" max="32" width="15" style="1" customWidth="1"/>
     <col min="33" max="33" width="7" style="1" customWidth="1"/>
-    <col min="34" max="34" width="10.83203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.8333333333333" style="1" customWidth="1"/>
     <col min="35" max="36" width="15" style="1" customWidth="1"/>
     <col min="37" max="37" width="7" style="1" customWidth="1"/>
-    <col min="38" max="38" width="8.83203125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="8.83333333333333" style="1" customWidth="1"/>
     <col min="39" max="40" width="15" style="1" customWidth="1"/>
     <col min="41" max="41" width="7" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.83203125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="43" max="44" width="15" style="1" customWidth="1"/>
     <col min="45" max="45" width="7" style="1" customWidth="1"/>
     <col min="46" max="48" width="15" style="1" customWidth="1"/>
     <col min="49" max="49" width="7" style="1" customWidth="1"/>
-    <col min="50" max="50" width="10.83203125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="10.8333333333333" style="1" customWidth="1"/>
     <col min="51" max="52" width="15" style="1" customWidth="1"/>
     <col min="53" max="53" width="7" style="1" customWidth="1"/>
-    <col min="54" max="54" width="12.83203125" style="1" customWidth="1"/>
+    <col min="54" max="54" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="55" max="56" width="15" style="1" customWidth="1"/>
     <col min="57" max="57" width="7" style="1" customWidth="1"/>
-    <col min="58" max="58" width="12.83203125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="59" max="60" width="15" style="1" customWidth="1"/>
     <col min="61" max="61" width="7" style="1" customWidth="1"/>
     <col min="62" max="62" width="11" style="1" customWidth="1"/>
     <col min="63" max="64" width="15" style="1" customWidth="1"/>
     <col min="65" max="65" width="7" style="1" customWidth="1"/>
-    <col min="66" max="66" width="12.83203125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="67" max="68" width="15" style="1" customWidth="1"/>
     <col min="69" max="69" width="7" style="1" customWidth="1"/>
-    <col min="70" max="70" width="8.83203125" style="1" customWidth="1"/>
+    <col min="70" max="70" width="8.83333333333333" style="1" customWidth="1"/>
     <col min="71" max="72" width="15" style="1" customWidth="1"/>
     <col min="73" max="73" width="7" style="1" customWidth="1"/>
-    <col min="74" max="74" width="8.83203125" style="1" customWidth="1"/>
+    <col min="74" max="74" width="8.83333333333333" style="1" customWidth="1"/>
     <col min="75" max="76" width="15" style="1" customWidth="1"/>
     <col min="77" max="77" width="7" style="1" customWidth="1"/>
-    <col min="78" max="78" width="10.83203125" style="1" customWidth="1"/>
+    <col min="78" max="78" width="10.8333333333333" style="1" customWidth="1"/>
     <col min="79" max="80" width="15" style="1" customWidth="1"/>
     <col min="81" max="81" width="7" style="1" customWidth="1"/>
-    <col min="82" max="83" width="20.33203125" style="1" customWidth="1"/>
+    <col min="82" max="83" width="20.3333333333333" style="1" customWidth="1"/>
     <col min="84" max="84" width="15" style="1" customWidth="1"/>
     <col min="85" max="85" width="7" style="1" customWidth="1"/>
-    <col min="86" max="86" width="10.83203125" style="1" customWidth="1"/>
+    <col min="86" max="86" width="10.8333333333333" style="1" customWidth="1"/>
     <col min="87" max="88" width="15" style="1" customWidth="1"/>
     <col min="89" max="89" width="7" style="1" customWidth="1"/>
-    <col min="90" max="90" width="19.08203125" style="1" customWidth="1"/>
+    <col min="90" max="90" width="19.0833333333333" style="1" customWidth="1"/>
     <col min="91" max="92" width="15" style="1" customWidth="1"/>
     <col min="93" max="93" width="7" style="1" customWidth="1"/>
-    <col min="94" max="94" width="12.83203125" style="1" customWidth="1"/>
+    <col min="94" max="94" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="95" max="96" width="15" style="1" customWidth="1"/>
     <col min="97" max="97" width="7" style="1" customWidth="1"/>
-    <col min="98" max="98" width="10.83203125" style="1" customWidth="1"/>
+    <col min="98" max="98" width="10.8333333333333" style="1" customWidth="1"/>
     <col min="99" max="100" width="15" style="1" customWidth="1"/>
     <col min="101" max="101" width="7" style="1" customWidth="1"/>
     <col min="102" max="104" width="15" style="1" customWidth="1"/>
     <col min="105" max="105" width="7" style="1" customWidth="1"/>
-    <col min="106" max="106" width="8.83203125" style="1" customWidth="1"/>
+    <col min="106" max="106" width="8.83333333333333" style="1" customWidth="1"/>
     <col min="107" max="108" width="15" style="1" customWidth="1"/>
     <col min="109" max="109" width="7" style="1" customWidth="1"/>
-    <col min="110" max="110" width="10.83203125" style="1" customWidth="1"/>
+    <col min="110" max="110" width="10.8333333333333" style="1" customWidth="1"/>
     <col min="111" max="112" width="15" style="1" customWidth="1"/>
     <col min="113" max="113" width="7" style="1" customWidth="1"/>
-    <col min="114" max="114" width="8.83203125" style="1" customWidth="1"/>
+    <col min="114" max="114" width="8.83333333333333" style="1" customWidth="1"/>
     <col min="115" max="116" width="15" style="1" customWidth="1"/>
     <col min="117" max="117" width="7" style="1" customWidth="1"/>
-    <col min="118" max="118" width="12.83203125" style="1" customWidth="1"/>
+    <col min="118" max="118" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="119" max="120" width="15" style="1" customWidth="1"/>
     <col min="121" max="121" width="7" style="1" customWidth="1"/>
-    <col min="122" max="122" width="10.83203125" style="1" customWidth="1"/>
+    <col min="122" max="122" width="10.8333333333333" style="1" customWidth="1"/>
     <col min="123" max="124" width="15" style="1" customWidth="1"/>
-    <col min="125" max="125" width="8.83203125" style="1" customWidth="1"/>
-    <col min="126" max="126" width="10.83203125" style="1" customWidth="1"/>
+    <col min="125" max="125" width="8.83333333333333" style="1" customWidth="1"/>
+    <col min="126" max="126" width="10.8333333333333" style="1" customWidth="1"/>
     <col min="127" max="128" width="15" style="1" customWidth="1"/>
     <col min="129" max="129" width="7" style="1" customWidth="1"/>
-    <col min="130" max="130" width="8.83203125" style="1" customWidth="1"/>
+    <col min="130" max="130" width="8.83333333333333" style="1" customWidth="1"/>
     <col min="131" max="132" width="15" style="1" customWidth="1"/>
     <col min="133" max="133" width="7" style="1" customWidth="1"/>
-    <col min="134" max="134" width="12.83203125" style="1" customWidth="1"/>
+    <col min="134" max="134" width="12.8333333333333" style="1" customWidth="1"/>
     <col min="135" max="136" width="15" style="1" customWidth="1"/>
     <col min="137" max="137" width="7" style="1" customWidth="1"/>
-    <col min="138" max="138" width="8.83203125" style="1" customWidth="1"/>
+    <col min="138" max="138" width="8.83333333333333" style="1" customWidth="1"/>
     <col min="139" max="140" width="15" style="1" customWidth="1"/>
     <col min="141" max="141" width="7" style="1" customWidth="1"/>
-    <col min="142" max="142" width="8.83203125" style="1" customWidth="1"/>
+    <col min="142" max="142" width="8.83333333333333" style="1" customWidth="1"/>
     <col min="143" max="144" width="15" style="1" customWidth="1"/>
     <col min="145" max="145" width="7" style="1" customWidth="1"/>
-    <col min="146" max="146" width="8.83203125" style="1" customWidth="1"/>
+    <col min="146" max="146" width="8.83333333333333" style="1" customWidth="1"/>
     <col min="147" max="148" width="15" style="1" customWidth="1"/>
     <col min="149" max="149" width="7" style="1" customWidth="1"/>
-    <col min="150" max="150" width="8.83203125" style="1" customWidth="1"/>
+    <col min="150" max="150" width="8.83333333333333" style="1" customWidth="1"/>
     <col min="151" max="152" width="15" style="1" customWidth="1"/>
     <col min="153" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:152">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -1274,7 +1883,7 @@
       </c>
       <c r="AF1" s="2">
         <f>SUM(AF3:AF25)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
@@ -1517,7 +2126,7 @@
       </c>
       <c r="EJ1" s="2">
         <f>SUM(EJ3:EJ25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK1" s="2"/>
       <c r="EL1" s="2"/>
@@ -1547,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:152">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2005,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:152">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2306,140 +2915,144 @@
       <c r="CV3" s="2">
         <v>0</v>
       </c>
-      <c r="CW3" s="4" t="s">
+      <c r="CW3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX3" s="4" t="s">
+      <c r="CX3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="CY3" s="4" t="s">
+      <c r="CY3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="CZ3" s="4">
+      <c r="CZ3" s="5">
         <v>0.5</v>
       </c>
-      <c r="DA3" s="4" t="s">
+      <c r="DA3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB3" s="4" t="s">
+      <c r="DB3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="DC3" s="4" t="s">
+      <c r="DC3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="DD3" s="4">
-        <v>0</v>
-      </c>
-      <c r="DE3" s="4" t="s">
+      <c r="DD3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF3" s="4" t="s">
+      <c r="DF3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="DG3" s="4" t="s">
+      <c r="DG3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="DH3" s="4">
-        <v>0</v>
-      </c>
-      <c r="DI3" s="4" t="s">
+      <c r="DH3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ3" s="4" t="s">
+      <c r="DJ3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="DK3" s="4"/>
-      <c r="DL3" s="4"/>
-      <c r="DM3" s="4" t="s">
+      <c r="DK3" s="5"/>
+      <c r="DL3" s="5"/>
+      <c r="DM3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN3" s="4" t="s">
+      <c r="DN3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="DO3" s="4" t="s">
+      <c r="DO3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="DP3" s="4">
-        <v>1</v>
-      </c>
-      <c r="DQ3" s="4" t="s">
+      <c r="DP3" s="5">
+        <v>1</v>
+      </c>
+      <c r="DQ3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR3" s="4" t="s">
+      <c r="DR3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="DS3" s="4" t="s">
+      <c r="DS3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="DT3" s="4">
-        <v>1</v>
-      </c>
-      <c r="DU3" s="4" t="s">
+      <c r="DT3" s="5">
+        <v>1</v>
+      </c>
+      <c r="DU3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV3" s="4" t="s">
+      <c r="DV3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="DW3" s="4" t="s">
+      <c r="DW3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="DX3" s="4">
-        <v>1</v>
-      </c>
-      <c r="DY3" s="4" t="s">
+      <c r="DX3" s="5">
+        <v>1</v>
+      </c>
+      <c r="DY3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ3" s="4" t="s">
+      <c r="DZ3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="EA3" s="4" t="s">
+      <c r="EA3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="EB3" s="4">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="4" t="s">
+      <c r="EB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="EC3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED3" s="4" t="s">
+      <c r="ED3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="EE3" s="4" t="s">
+      <c r="EE3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="EF3" s="4">
+      <c r="EF3" s="5">
         <v>1</v>
       </c>
       <c r="EG3" s="6" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="EH3" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="EI3" s="4"/>
-      <c r="EJ3" s="4"/>
-      <c r="EK3" s="4"/>
-      <c r="EL3" s="4"/>
-      <c r="EM3" s="4"/>
-      <c r="EN3" s="4"/>
-      <c r="EO3" s="4"/>
-      <c r="EP3" s="4"/>
-      <c r="EQ3" s="4"/>
-      <c r="ER3" s="4"/>
-      <c r="ES3" s="4"/>
-      <c r="ET3" s="4"/>
-      <c r="EU3" s="4"/>
-      <c r="EV3" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="EI3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="EJ3" s="5">
+        <v>1</v>
+      </c>
+      <c r="EK3" s="5"/>
+      <c r="EL3" s="5"/>
+      <c r="EM3" s="5"/>
+      <c r="EN3" s="5"/>
+      <c r="EO3" s="5"/>
+      <c r="EP3" s="5"/>
+      <c r="EQ3" s="5"/>
+      <c r="ER3" s="5"/>
+      <c r="ES3" s="5"/>
+      <c r="ET3" s="5"/>
+      <c r="EU3" s="5"/>
+      <c r="EV3" s="5"/>
     </row>
-    <row r="4" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:152">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2448,10 +3061,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -2460,10 +3073,10 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -2472,10 +3085,10 @@
         <v>11</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
@@ -2496,10 +3109,10 @@
         <v>17</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X4" s="2">
         <v>1</v>
@@ -2508,10 +3121,10 @@
         <v>19</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB4" s="2">
         <v>1</v>
@@ -2520,10 +3133,10 @@
         <v>21</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AF4" s="2">
         <v>1</v>
@@ -2532,10 +3145,10 @@
         <v>22</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AJ4" s="2">
         <v>1</v>
@@ -2550,10 +3163,10 @@
         <v>27</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AR4" s="2">
         <v>1</v>
@@ -2574,10 +3187,10 @@
         <v>32</v>
       </c>
       <c r="AX4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -2586,10 +3199,10 @@
         <v>35</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BC4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BD4" s="2">
         <v>1</v>
@@ -2610,10 +3223,10 @@
         <v>41</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BL4" s="2">
         <v>1</v>
@@ -2622,10 +3235,10 @@
         <v>44</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BP4" s="2">
         <v>1</v>
@@ -2646,10 +3259,10 @@
         <v>50</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="CB4" s="2">
         <v>0</v>
@@ -2658,10 +3271,10 @@
         <v>53</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="CF4" s="2">
         <v>0</v>
@@ -2676,10 +3289,10 @@
         <v>59</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="CM4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="CN4" s="2">
         <v>0</v>
@@ -2688,10 +3301,10 @@
         <v>62</v>
       </c>
       <c r="CP4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="CQ4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="CR4" s="2">
         <v>0</v>
@@ -2700,114 +3313,114 @@
         <v>64</v>
       </c>
       <c r="CT4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="CU4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CV4" s="2">
         <v>0</v>
       </c>
-      <c r="CW4" s="4" t="s">
+      <c r="CW4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="DA4" s="4" t="s">
+      <c r="CX4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB4" s="4"/>
-      <c r="DC4" s="4"/>
-      <c r="DD4" s="4"/>
-      <c r="DE4" s="4" t="s">
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="5"/>
+      <c r="DD4" s="5"/>
+      <c r="DE4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF4" s="4"/>
-      <c r="DG4" s="4"/>
-      <c r="DH4" s="4"/>
-      <c r="DI4" s="4" t="s">
+      <c r="DF4" s="5"/>
+      <c r="DG4" s="5"/>
+      <c r="DH4" s="5"/>
+      <c r="DI4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ4" s="4"/>
-      <c r="DK4" s="4"/>
-      <c r="DL4" s="4"/>
-      <c r="DM4" s="4" t="s">
+      <c r="DJ4" s="5"/>
+      <c r="DK4" s="5"/>
+      <c r="DL4" s="5"/>
+      <c r="DM4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="DO4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="DP4" s="4">
-        <v>1</v>
-      </c>
-      <c r="DQ4" s="4" t="s">
+      <c r="DN4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="DO4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="DP4" s="5">
+        <v>1</v>
+      </c>
+      <c r="DQ4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR4" s="4" t="s">
+      <c r="DR4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="DS4" s="4" t="s">
+      <c r="DS4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="DT4" s="4">
-        <v>1</v>
-      </c>
-      <c r="DU4" s="4" t="s">
+      <c r="DT4" s="5">
+        <v>1</v>
+      </c>
+      <c r="DU4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV4" s="4"/>
-      <c r="DW4" s="4"/>
-      <c r="DX4" s="4"/>
-      <c r="DY4" s="4" t="s">
+      <c r="DV4" s="5"/>
+      <c r="DW4" s="5"/>
+      <c r="DX4" s="5"/>
+      <c r="DY4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ4" s="4"/>
-      <c r="EA4" s="4"/>
-      <c r="EB4" s="4"/>
-      <c r="EC4" s="4" t="s">
+      <c r="DZ4" s="5"/>
+      <c r="EA4" s="5"/>
+      <c r="EB4" s="5"/>
+      <c r="EC4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED4" s="4"/>
-      <c r="EE4" s="4"/>
-      <c r="EF4" s="4"/>
+      <c r="ED4" s="5"/>
+      <c r="EE4" s="5"/>
+      <c r="EF4" s="5"/>
       <c r="EG4" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH4" s="4"/>
-      <c r="EI4" s="4"/>
-      <c r="EJ4" s="4"/>
-      <c r="EK4" s="4"/>
-      <c r="EL4" s="4"/>
-      <c r="EM4" s="4"/>
-      <c r="EN4" s="4"/>
-      <c r="EO4" s="4"/>
-      <c r="EP4" s="4"/>
-      <c r="EQ4" s="4"/>
-      <c r="ER4" s="4"/>
-      <c r="ES4" s="4"/>
-      <c r="ET4" s="4"/>
-      <c r="EU4" s="4"/>
-      <c r="EV4" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH4" s="5"/>
+      <c r="EI4" s="5"/>
+      <c r="EJ4" s="5"/>
+      <c r="EK4" s="5"/>
+      <c r="EL4" s="5"/>
+      <c r="EM4" s="5"/>
+      <c r="EN4" s="5"/>
+      <c r="EO4" s="5"/>
+      <c r="EP4" s="5"/>
+      <c r="EQ4" s="5"/>
+      <c r="ER4" s="5"/>
+      <c r="ES4" s="5"/>
+      <c r="ET4" s="5"/>
+      <c r="EU4" s="5"/>
+      <c r="EV4" s="5"/>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:152">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2816,10 +3429,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -2828,10 +3441,10 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -2840,10 +3453,10 @@
         <v>11</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P5" s="2">
         <v>0</v>
@@ -2852,10 +3465,10 @@
         <v>14</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
@@ -2864,10 +3477,10 @@
         <v>17</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="X5" s="2">
         <v>0</v>
@@ -2876,10 +3489,10 @@
         <v>19</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB5" s="2">
         <v>1</v>
@@ -2903,7 +3516,7 @@
         <v>77</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ5" s="2">
         <v>0</v>
@@ -2918,10 +3531,10 @@
         <v>27</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AR5" s="2">
         <v>0</v>
@@ -2942,10 +3555,10 @@
         <v>35</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BC5" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BD5" s="2">
         <v>0</v>
@@ -2984,7 +3597,7 @@
         <v>50</v>
       </c>
       <c r="BZ5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="CA5" s="2" t="s">
         <v>75</v>
@@ -2996,10 +3609,10 @@
         <v>53</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CE5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CF5" s="2">
         <v>0</v>
@@ -3014,10 +3627,10 @@
         <v>59</v>
       </c>
       <c r="CL5" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="CM5" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="CN5" s="2">
         <v>0</v>
@@ -3034,100 +3647,100 @@
       <c r="CT5" s="2"/>
       <c r="CU5" s="2"/>
       <c r="CV5" s="2"/>
-      <c r="CW5" s="4" t="s">
+      <c r="CW5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX5" s="4"/>
-      <c r="CY5" s="4"/>
-      <c r="CZ5" s="4"/>
-      <c r="DA5" s="4" t="s">
+      <c r="CX5" s="5"/>
+      <c r="CY5" s="5"/>
+      <c r="CZ5" s="5"/>
+      <c r="DA5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB5" s="4"/>
-      <c r="DC5" s="4"/>
-      <c r="DD5" s="4"/>
-      <c r="DE5" s="4" t="s">
+      <c r="DB5" s="5"/>
+      <c r="DC5" s="5"/>
+      <c r="DD5" s="5"/>
+      <c r="DE5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF5" s="4"/>
-      <c r="DG5" s="4"/>
-      <c r="DH5" s="4"/>
-      <c r="DI5" s="4" t="s">
+      <c r="DF5" s="5"/>
+      <c r="DG5" s="5"/>
+      <c r="DH5" s="5"/>
+      <c r="DI5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ5" s="4"/>
-      <c r="DK5" s="4"/>
-      <c r="DL5" s="4"/>
-      <c r="DM5" s="4" t="s">
+      <c r="DJ5" s="5"/>
+      <c r="DK5" s="5"/>
+      <c r="DL5" s="5"/>
+      <c r="DM5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="DO5" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="DP5" s="4">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="4" t="s">
+      <c r="DN5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="DO5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="DP5" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="DS5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="DT5" s="4">
-        <v>1</v>
-      </c>
-      <c r="DU5" s="4" t="s">
+      <c r="DR5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="DS5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="DT5" s="5">
+        <v>1</v>
+      </c>
+      <c r="DU5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV5" s="4"/>
-      <c r="DW5" s="4"/>
-      <c r="DX5" s="4"/>
-      <c r="DY5" s="4" t="s">
+      <c r="DV5" s="5"/>
+      <c r="DW5" s="5"/>
+      <c r="DX5" s="5"/>
+      <c r="DY5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ5" s="4"/>
-      <c r="EA5" s="4"/>
-      <c r="EB5" s="4"/>
-      <c r="EC5" s="4" t="s">
+      <c r="DZ5" s="5"/>
+      <c r="EA5" s="5"/>
+      <c r="EB5" s="5"/>
+      <c r="EC5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED5" s="4"/>
-      <c r="EE5" s="4"/>
-      <c r="EF5" s="4"/>
+      <c r="ED5" s="5"/>
+      <c r="EE5" s="5"/>
+      <c r="EF5" s="5"/>
       <c r="EG5" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH5" s="4"/>
-      <c r="EI5" s="4"/>
-      <c r="EJ5" s="4"/>
-      <c r="EK5" s="4"/>
-      <c r="EL5" s="4"/>
-      <c r="EM5" s="4"/>
-      <c r="EN5" s="4"/>
-      <c r="EO5" s="4"/>
-      <c r="EP5" s="4"/>
-      <c r="EQ5" s="4"/>
-      <c r="ER5" s="4"/>
-      <c r="ES5" s="4"/>
-      <c r="ET5" s="4"/>
-      <c r="EU5" s="4"/>
-      <c r="EV5" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH5" s="5"/>
+      <c r="EI5" s="5"/>
+      <c r="EJ5" s="5"/>
+      <c r="EK5" s="5"/>
+      <c r="EL5" s="5"/>
+      <c r="EM5" s="5"/>
+      <c r="EN5" s="5"/>
+      <c r="EO5" s="5"/>
+      <c r="EP5" s="5"/>
+      <c r="EQ5" s="5"/>
+      <c r="ER5" s="5"/>
+      <c r="ES5" s="5"/>
+      <c r="ET5" s="5"/>
+      <c r="EU5" s="5"/>
+      <c r="EV5" s="5"/>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:152">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -3142,10 +3755,10 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -3154,10 +3767,10 @@
         <v>11</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -3166,10 +3779,10 @@
         <v>14</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T6" s="2">
         <v>1</v>
@@ -3178,10 +3791,10 @@
         <v>17</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="X6" s="2">
         <v>1</v>
@@ -3190,10 +3803,10 @@
         <v>19</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB6" s="2">
         <v>0</v>
@@ -3202,10 +3815,10 @@
         <v>21</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF6" s="2">
         <v>0</v>
@@ -3226,10 +3839,10 @@
         <v>27</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AR6" s="2">
         <v>1</v>
@@ -3250,10 +3863,10 @@
         <v>35</v>
       </c>
       <c r="BB6" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BC6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BD6" s="2">
         <v>0</v>
@@ -3298,10 +3911,10 @@
         <v>53</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="CE6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="CF6" s="2">
         <v>0</v>
@@ -3316,10 +3929,10 @@
         <v>59</v>
       </c>
       <c r="CL6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="CM6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="CN6" s="2">
         <v>1</v>
@@ -3336,92 +3949,92 @@
       <c r="CT6" s="2"/>
       <c r="CU6" s="2"/>
       <c r="CV6" s="2"/>
-      <c r="CW6" s="4" t="s">
+      <c r="CW6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX6" s="4"/>
-      <c r="CY6" s="4"/>
-      <c r="CZ6" s="4"/>
-      <c r="DA6" s="4" t="s">
+      <c r="CX6" s="5"/>
+      <c r="CY6" s="5"/>
+      <c r="CZ6" s="5"/>
+      <c r="DA6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB6" s="4"/>
-      <c r="DC6" s="4"/>
-      <c r="DD6" s="4"/>
-      <c r="DE6" s="4" t="s">
+      <c r="DB6" s="5"/>
+      <c r="DC6" s="5"/>
+      <c r="DD6" s="5"/>
+      <c r="DE6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF6" s="4"/>
-      <c r="DG6" s="4"/>
-      <c r="DH6" s="4"/>
-      <c r="DI6" s="4" t="s">
+      <c r="DF6" s="5"/>
+      <c r="DG6" s="5"/>
+      <c r="DH6" s="5"/>
+      <c r="DI6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ6" s="4"/>
-      <c r="DK6" s="4"/>
-      <c r="DL6" s="4"/>
-      <c r="DM6" s="4" t="s">
+      <c r="DJ6" s="5"/>
+      <c r="DK6" s="5"/>
+      <c r="DL6" s="5"/>
+      <c r="DM6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="DO6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP6" s="4">
-        <v>0</v>
-      </c>
-      <c r="DQ6" s="4" t="s">
+      <c r="DN6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="DO6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="DP6" s="5">
+        <v>0</v>
+      </c>
+      <c r="DQ6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="DS6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="DT6" s="4">
-        <v>0</v>
-      </c>
-      <c r="DU6" s="4" t="s">
+      <c r="DR6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="DS6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="DT6" s="5">
+        <v>0</v>
+      </c>
+      <c r="DU6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV6" s="4"/>
-      <c r="DW6" s="4"/>
-      <c r="DX6" s="4"/>
-      <c r="DY6" s="4" t="s">
+      <c r="DV6" s="5"/>
+      <c r="DW6" s="5"/>
+      <c r="DX6" s="5"/>
+      <c r="DY6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ6" s="4"/>
-      <c r="EA6" s="4"/>
-      <c r="EB6" s="4"/>
-      <c r="EC6" s="4" t="s">
+      <c r="DZ6" s="5"/>
+      <c r="EA6" s="5"/>
+      <c r="EB6" s="5"/>
+      <c r="EC6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED6" s="4"/>
-      <c r="EE6" s="4"/>
-      <c r="EF6" s="4"/>
+      <c r="ED6" s="5"/>
+      <c r="EE6" s="5"/>
+      <c r="EF6" s="5"/>
       <c r="EG6" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH6" s="4"/>
-      <c r="EI6" s="4"/>
-      <c r="EJ6" s="4"/>
-      <c r="EK6" s="4"/>
-      <c r="EL6" s="4"/>
-      <c r="EM6" s="4"/>
-      <c r="EN6" s="4"/>
-      <c r="EO6" s="4"/>
-      <c r="EP6" s="4"/>
-      <c r="EQ6" s="4"/>
-      <c r="ER6" s="4"/>
-      <c r="ES6" s="4"/>
-      <c r="ET6" s="4"/>
-      <c r="EU6" s="4"/>
-      <c r="EV6" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH6" s="5"/>
+      <c r="EI6" s="5"/>
+      <c r="EJ6" s="5"/>
+      <c r="EK6" s="5"/>
+      <c r="EL6" s="5"/>
+      <c r="EM6" s="5"/>
+      <c r="EN6" s="5"/>
+      <c r="EO6" s="5"/>
+      <c r="EP6" s="5"/>
+      <c r="EQ6" s="5"/>
+      <c r="ER6" s="5"/>
+      <c r="ES6" s="5"/>
+      <c r="ET6" s="5"/>
+      <c r="EU6" s="5"/>
+      <c r="EV6" s="5"/>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:152">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3429,7 +4042,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3444,10 +4057,10 @@
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -3456,10 +4069,10 @@
         <v>11</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
@@ -3468,10 +4081,10 @@
         <v>14</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T7" s="2">
         <v>1</v>
@@ -3480,10 +4093,10 @@
         <v>17</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="X7" s="2">
         <v>1</v>
@@ -3498,10 +4111,10 @@
         <v>21</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF7" s="2">
         <v>1</v>
@@ -3540,10 +4153,10 @@
         <v>35</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BC7" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BD7" s="2">
         <v>0</v>
@@ -3588,10 +4201,10 @@
         <v>53</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CE7" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CF7" s="2">
         <v>0</v>
@@ -3606,10 +4219,10 @@
         <v>59</v>
       </c>
       <c r="CL7" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="CM7" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="CN7" s="2">
         <v>0.5</v>
@@ -3626,85 +4239,85 @@
       <c r="CT7" s="2"/>
       <c r="CU7" s="2"/>
       <c r="CV7" s="2"/>
-      <c r="CW7" s="4" t="s">
+      <c r="CW7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX7" s="4"/>
-      <c r="CY7" s="4"/>
-      <c r="CZ7" s="4"/>
-      <c r="DA7" s="4" t="s">
+      <c r="CX7" s="5"/>
+      <c r="CY7" s="5"/>
+      <c r="CZ7" s="5"/>
+      <c r="DA7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB7" s="4"/>
-      <c r="DC7" s="4"/>
-      <c r="DD7" s="4"/>
-      <c r="DE7" s="4" t="s">
+      <c r="DB7" s="5"/>
+      <c r="DC7" s="5"/>
+      <c r="DD7" s="5"/>
+      <c r="DE7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF7" s="4"/>
-      <c r="DG7" s="4"/>
-      <c r="DH7" s="4"/>
-      <c r="DI7" s="4" t="s">
+      <c r="DF7" s="5"/>
+      <c r="DG7" s="5"/>
+      <c r="DH7" s="5"/>
+      <c r="DI7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ7" s="4"/>
-      <c r="DK7" s="4"/>
-      <c r="DL7" s="4"/>
-      <c r="DM7" s="4" t="s">
+      <c r="DJ7" s="5"/>
+      <c r="DK7" s="5"/>
+      <c r="DL7" s="5"/>
+      <c r="DM7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN7" s="4"/>
-      <c r="DO7" s="4"/>
-      <c r="DP7" s="4"/>
-      <c r="DQ7" s="4" t="s">
+      <c r="DN7" s="5"/>
+      <c r="DO7" s="5"/>
+      <c r="DP7" s="5"/>
+      <c r="DQ7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT7" s="4">
-        <v>1</v>
-      </c>
-      <c r="DU7" s="4" t="s">
+      <c r="DR7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="DS7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="DT7" s="5">
+        <v>1</v>
+      </c>
+      <c r="DU7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV7" s="4"/>
-      <c r="DW7" s="4"/>
-      <c r="DX7" s="4"/>
-      <c r="DY7" s="4" t="s">
+      <c r="DV7" s="5"/>
+      <c r="DW7" s="5"/>
+      <c r="DX7" s="5"/>
+      <c r="DY7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="EA7" s="4"/>
-      <c r="EB7" s="4"/>
-      <c r="EC7" s="4" t="s">
+      <c r="EA7" s="5"/>
+      <c r="EB7" s="5"/>
+      <c r="EC7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED7" s="4"/>
-      <c r="EE7" s="4"/>
-      <c r="EF7" s="4"/>
+      <c r="ED7" s="5"/>
+      <c r="EE7" s="5"/>
+      <c r="EF7" s="5"/>
       <c r="EG7" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH7" s="4"/>
-      <c r="EI7" s="4"/>
-      <c r="EJ7" s="4"/>
-      <c r="EK7" s="4"/>
-      <c r="EL7" s="4"/>
-      <c r="EM7" s="4"/>
-      <c r="EN7" s="4"/>
-      <c r="EO7" s="4"/>
-      <c r="EP7" s="4"/>
-      <c r="EQ7" s="4"/>
-      <c r="ER7" s="4"/>
-      <c r="ES7" s="4"/>
-      <c r="ET7" s="4"/>
-      <c r="EU7" s="4"/>
-      <c r="EV7" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH7" s="5"/>
+      <c r="EI7" s="5"/>
+      <c r="EJ7" s="5"/>
+      <c r="EK7" s="5"/>
+      <c r="EL7" s="5"/>
+      <c r="EM7" s="5"/>
+      <c r="EN7" s="5"/>
+      <c r="EO7" s="5"/>
+      <c r="EP7" s="5"/>
+      <c r="EQ7" s="5"/>
+      <c r="ER7" s="5"/>
+      <c r="ES7" s="5"/>
+      <c r="ET7" s="5"/>
+      <c r="EU7" s="5"/>
+      <c r="EV7" s="5"/>
     </row>
-    <row r="8" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:152">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3733,10 +4346,10 @@
         <v>11</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
@@ -3745,10 +4358,10 @@
         <v>14</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T8" s="2">
         <v>1</v>
@@ -3757,10 +4370,10 @@
         <v>17</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="X8" s="2">
         <v>1</v>
@@ -3775,10 +4388,10 @@
         <v>21</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF8" s="2">
         <v>0</v>
@@ -3817,10 +4430,10 @@
         <v>35</v>
       </c>
       <c r="BB8" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BC8" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BD8" s="2">
         <v>0</v>
@@ -3877,10 +4490,10 @@
         <v>59</v>
       </c>
       <c r="CL8" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CM8" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="CN8" s="2">
         <v>0</v>
@@ -3897,80 +4510,80 @@
       <c r="CT8" s="2"/>
       <c r="CU8" s="2"/>
       <c r="CV8" s="2"/>
-      <c r="CW8" s="4" t="s">
+      <c r="CW8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX8" s="4"/>
-      <c r="CY8" s="4"/>
-      <c r="CZ8" s="4"/>
-      <c r="DA8" s="4" t="s">
+      <c r="CX8" s="5"/>
+      <c r="CY8" s="5"/>
+      <c r="CZ8" s="5"/>
+      <c r="DA8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB8" s="4"/>
-      <c r="DC8" s="4"/>
-      <c r="DD8" s="4"/>
-      <c r="DE8" s="4" t="s">
+      <c r="DB8" s="5"/>
+      <c r="DC8" s="5"/>
+      <c r="DD8" s="5"/>
+      <c r="DE8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF8" s="4"/>
-      <c r="DG8" s="4"/>
-      <c r="DH8" s="4"/>
-      <c r="DI8" s="4" t="s">
+      <c r="DF8" s="5"/>
+      <c r="DG8" s="5"/>
+      <c r="DH8" s="5"/>
+      <c r="DI8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ8" s="4"/>
-      <c r="DK8" s="4"/>
-      <c r="DL8" s="4"/>
-      <c r="DM8" s="4" t="s">
+      <c r="DJ8" s="5"/>
+      <c r="DK8" s="5"/>
+      <c r="DL8" s="5"/>
+      <c r="DM8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN8" s="4"/>
-      <c r="DO8" s="4"/>
-      <c r="DP8" s="4"/>
-      <c r="DQ8" s="4" t="s">
+      <c r="DN8" s="5"/>
+      <c r="DO8" s="5"/>
+      <c r="DP8" s="5"/>
+      <c r="DQ8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR8" s="4"/>
-      <c r="DS8" s="4"/>
-      <c r="DT8" s="4"/>
-      <c r="DU8" s="4" t="s">
+      <c r="DR8" s="5"/>
+      <c r="DS8" s="5"/>
+      <c r="DT8" s="5"/>
+      <c r="DU8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV8" s="4"/>
-      <c r="DW8" s="4"/>
-      <c r="DX8" s="4"/>
-      <c r="DY8" s="4" t="s">
+      <c r="DV8" s="5"/>
+      <c r="DW8" s="5"/>
+      <c r="DX8" s="5"/>
+      <c r="DY8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ8" s="4"/>
-      <c r="EA8" s="4"/>
-      <c r="EB8" s="4"/>
-      <c r="EC8" s="4" t="s">
+      <c r="DZ8" s="5"/>
+      <c r="EA8" s="5"/>
+      <c r="EB8" s="5"/>
+      <c r="EC8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED8" s="4"/>
-      <c r="EE8" s="4"/>
-      <c r="EF8" s="4"/>
+      <c r="ED8" s="5"/>
+      <c r="EE8" s="5"/>
+      <c r="EF8" s="5"/>
       <c r="EG8" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH8" s="4"/>
-      <c r="EI8" s="4"/>
-      <c r="EJ8" s="4"/>
-      <c r="EK8" s="4"/>
-      <c r="EL8" s="4"/>
-      <c r="EM8" s="4"/>
-      <c r="EN8" s="4"/>
-      <c r="EO8" s="4"/>
-      <c r="EP8" s="4"/>
-      <c r="EQ8" s="4"/>
-      <c r="ER8" s="4"/>
-      <c r="ES8" s="4"/>
-      <c r="ET8" s="4"/>
-      <c r="EU8" s="4"/>
-      <c r="EV8" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH8" s="5"/>
+      <c r="EI8" s="5"/>
+      <c r="EJ8" s="5"/>
+      <c r="EK8" s="5"/>
+      <c r="EL8" s="5"/>
+      <c r="EM8" s="5"/>
+      <c r="EN8" s="5"/>
+      <c r="EO8" s="5"/>
+      <c r="EP8" s="5"/>
+      <c r="EQ8" s="5"/>
+      <c r="ER8" s="5"/>
+      <c r="ES8" s="5"/>
+      <c r="ET8" s="5"/>
+      <c r="EU8" s="5"/>
+      <c r="EV8" s="5"/>
     </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:152">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -3987,10 +4600,10 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -3999,10 +4612,10 @@
         <v>11</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
@@ -4011,10 +4624,10 @@
         <v>14</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
@@ -4023,10 +4636,10 @@
         <v>17</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X9" s="2">
         <v>0.5</v>
@@ -4083,10 +4696,10 @@
         <v>35</v>
       </c>
       <c r="BB9" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BC9" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BD9" s="2">
         <v>1</v>
@@ -4163,80 +4776,80 @@
       <c r="CT9" s="2"/>
       <c r="CU9" s="2"/>
       <c r="CV9" s="2"/>
-      <c r="CW9" s="4" t="s">
+      <c r="CW9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX9" s="4"/>
-      <c r="CY9" s="4"/>
-      <c r="CZ9" s="4"/>
-      <c r="DA9" s="4" t="s">
+      <c r="CX9" s="5"/>
+      <c r="CY9" s="5"/>
+      <c r="CZ9" s="5"/>
+      <c r="DA9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB9" s="4"/>
-      <c r="DC9" s="4"/>
-      <c r="DD9" s="4"/>
-      <c r="DE9" s="4" t="s">
+      <c r="DB9" s="5"/>
+      <c r="DC9" s="5"/>
+      <c r="DD9" s="5"/>
+      <c r="DE9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF9" s="4"/>
-      <c r="DG9" s="4"/>
-      <c r="DH9" s="4"/>
-      <c r="DI9" s="4" t="s">
+      <c r="DF9" s="5"/>
+      <c r="DG9" s="5"/>
+      <c r="DH9" s="5"/>
+      <c r="DI9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ9" s="4"/>
-      <c r="DK9" s="4"/>
-      <c r="DL9" s="4"/>
-      <c r="DM9" s="4" t="s">
+      <c r="DJ9" s="5"/>
+      <c r="DK9" s="5"/>
+      <c r="DL9" s="5"/>
+      <c r="DM9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN9" s="4"/>
-      <c r="DO9" s="4"/>
-      <c r="DP9" s="4"/>
-      <c r="DQ9" s="4" t="s">
+      <c r="DN9" s="5"/>
+      <c r="DO9" s="5"/>
+      <c r="DP9" s="5"/>
+      <c r="DQ9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR9" s="4"/>
-      <c r="DS9" s="4"/>
-      <c r="DT9" s="4"/>
-      <c r="DU9" s="4" t="s">
+      <c r="DR9" s="5"/>
+      <c r="DS9" s="5"/>
+      <c r="DT9" s="5"/>
+      <c r="DU9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV9" s="4"/>
-      <c r="DW9" s="4"/>
-      <c r="DX9" s="4"/>
-      <c r="DY9" s="4" t="s">
+      <c r="DV9" s="5"/>
+      <c r="DW9" s="5"/>
+      <c r="DX9" s="5"/>
+      <c r="DY9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ9" s="4"/>
-      <c r="EA9" s="4"/>
-      <c r="EB9" s="4"/>
-      <c r="EC9" s="4" t="s">
+      <c r="DZ9" s="5"/>
+      <c r="EA9" s="5"/>
+      <c r="EB9" s="5"/>
+      <c r="EC9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED9" s="4"/>
-      <c r="EE9" s="4"/>
-      <c r="EF9" s="4"/>
+      <c r="ED9" s="5"/>
+      <c r="EE9" s="5"/>
+      <c r="EF9" s="5"/>
       <c r="EG9" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH9" s="4"/>
-      <c r="EI9" s="4"/>
-      <c r="EJ9" s="4"/>
-      <c r="EK9" s="4"/>
-      <c r="EL9" s="4"/>
-      <c r="EM9" s="4"/>
-      <c r="EN9" s="4"/>
-      <c r="EO9" s="4"/>
-      <c r="EP9" s="4"/>
-      <c r="EQ9" s="4"/>
-      <c r="ER9" s="4"/>
-      <c r="ES9" s="4"/>
-      <c r="ET9" s="4"/>
-      <c r="EU9" s="4"/>
-      <c r="EV9" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH9" s="5"/>
+      <c r="EI9" s="5"/>
+      <c r="EJ9" s="5"/>
+      <c r="EK9" s="5"/>
+      <c r="EL9" s="5"/>
+      <c r="EM9" s="5"/>
+      <c r="EN9" s="5"/>
+      <c r="EO9" s="5"/>
+      <c r="EP9" s="5"/>
+      <c r="EQ9" s="5"/>
+      <c r="ER9" s="5"/>
+      <c r="ES9" s="5"/>
+      <c r="ET9" s="5"/>
+      <c r="EU9" s="5"/>
+      <c r="EV9" s="5"/>
     </row>
-    <row r="10" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:152">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -4253,10 +4866,10 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -4264,19 +4877,23 @@
       <c r="M10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="N10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
       <c r="Q10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T10" s="2">
         <v>1</v>
@@ -4285,10 +4902,10 @@
         <v>17</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="X10" s="2">
         <v>0.5</v>
@@ -4303,10 +4920,10 @@
         <v>21</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AF10" s="2">
         <v>0</v>
@@ -4345,10 +4962,10 @@
         <v>35</v>
       </c>
       <c r="BB10" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BC10" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BD10" s="2">
         <v>0</v>
@@ -4405,10 +5022,10 @@
         <v>59</v>
       </c>
       <c r="CL10" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CM10" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="CN10" s="2">
         <v>0</v>
@@ -4425,80 +5042,80 @@
       <c r="CT10" s="2"/>
       <c r="CU10" s="2"/>
       <c r="CV10" s="2"/>
-      <c r="CW10" s="4" t="s">
+      <c r="CW10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX10" s="4"/>
-      <c r="CY10" s="4"/>
-      <c r="CZ10" s="4"/>
-      <c r="DA10" s="4" t="s">
+      <c r="CX10" s="5"/>
+      <c r="CY10" s="5"/>
+      <c r="CZ10" s="5"/>
+      <c r="DA10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB10" s="4"/>
-      <c r="DC10" s="4"/>
-      <c r="DD10" s="4"/>
-      <c r="DE10" s="4" t="s">
+      <c r="DB10" s="5"/>
+      <c r="DC10" s="5"/>
+      <c r="DD10" s="5"/>
+      <c r="DE10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF10" s="4"/>
-      <c r="DG10" s="4"/>
-      <c r="DH10" s="4"/>
-      <c r="DI10" s="4" t="s">
+      <c r="DF10" s="5"/>
+      <c r="DG10" s="5"/>
+      <c r="DH10" s="5"/>
+      <c r="DI10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ10" s="4"/>
-      <c r="DK10" s="4"/>
-      <c r="DL10" s="4"/>
-      <c r="DM10" s="4" t="s">
+      <c r="DJ10" s="5"/>
+      <c r="DK10" s="5"/>
+      <c r="DL10" s="5"/>
+      <c r="DM10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN10" s="4"/>
-      <c r="DO10" s="4"/>
-      <c r="DP10" s="4"/>
-      <c r="DQ10" s="4" t="s">
+      <c r="DN10" s="5"/>
+      <c r="DO10" s="5"/>
+      <c r="DP10" s="5"/>
+      <c r="DQ10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR10" s="4"/>
-      <c r="DS10" s="4"/>
-      <c r="DT10" s="4"/>
-      <c r="DU10" s="4" t="s">
+      <c r="DR10" s="5"/>
+      <c r="DS10" s="5"/>
+      <c r="DT10" s="5"/>
+      <c r="DU10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV10" s="4"/>
-      <c r="DW10" s="4"/>
-      <c r="DX10" s="4"/>
-      <c r="DY10" s="4" t="s">
+      <c r="DV10" s="5"/>
+      <c r="DW10" s="5"/>
+      <c r="DX10" s="5"/>
+      <c r="DY10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ10" s="4"/>
-      <c r="EA10" s="4"/>
-      <c r="EB10" s="4"/>
-      <c r="EC10" s="4" t="s">
+      <c r="DZ10" s="5"/>
+      <c r="EA10" s="5"/>
+      <c r="EB10" s="5"/>
+      <c r="EC10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED10" s="4"/>
-      <c r="EE10" s="4"/>
-      <c r="EF10" s="4"/>
+      <c r="ED10" s="5"/>
+      <c r="EE10" s="5"/>
+      <c r="EF10" s="5"/>
       <c r="EG10" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH10" s="4"/>
-      <c r="EI10" s="4"/>
-      <c r="EJ10" s="4"/>
-      <c r="EK10" s="4"/>
-      <c r="EL10" s="4"/>
-      <c r="EM10" s="4"/>
-      <c r="EN10" s="4"/>
-      <c r="EO10" s="4"/>
-      <c r="EP10" s="4"/>
-      <c r="EQ10" s="4"/>
-      <c r="ER10" s="4"/>
-      <c r="ES10" s="4"/>
-      <c r="ET10" s="4"/>
-      <c r="EU10" s="4"/>
-      <c r="EV10" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH10" s="5"/>
+      <c r="EI10" s="5"/>
+      <c r="EJ10" s="5"/>
+      <c r="EK10" s="5"/>
+      <c r="EL10" s="5"/>
+      <c r="EM10" s="5"/>
+      <c r="EN10" s="5"/>
+      <c r="EO10" s="5"/>
+      <c r="EP10" s="5"/>
+      <c r="EQ10" s="5"/>
+      <c r="ER10" s="5"/>
+      <c r="ES10" s="5"/>
+      <c r="ET10" s="5"/>
+      <c r="EU10" s="5"/>
+      <c r="EV10" s="5"/>
     </row>
-    <row r="11" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:152">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -4515,10 +5132,10 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -4533,10 +5150,10 @@
         <v>14</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="T11" s="2">
         <v>1</v>
@@ -4545,10 +5162,10 @@
         <v>17</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -4605,10 +5222,10 @@
         <v>35</v>
       </c>
       <c r="BB11" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BC11" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
@@ -4665,10 +5282,10 @@
         <v>59</v>
       </c>
       <c r="CL11" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="CM11" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="CN11" s="2">
         <v>1</v>
@@ -4685,80 +5302,80 @@
       <c r="CT11" s="2"/>
       <c r="CU11" s="2"/>
       <c r="CV11" s="2"/>
-      <c r="CW11" s="4" t="s">
+      <c r="CW11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX11" s="4"/>
-      <c r="CY11" s="4"/>
-      <c r="CZ11" s="4"/>
-      <c r="DA11" s="4" t="s">
+      <c r="CX11" s="5"/>
+      <c r="CY11" s="5"/>
+      <c r="CZ11" s="5"/>
+      <c r="DA11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB11" s="4"/>
-      <c r="DC11" s="4"/>
-      <c r="DD11" s="4"/>
-      <c r="DE11" s="4" t="s">
+      <c r="DB11" s="5"/>
+      <c r="DC11" s="5"/>
+      <c r="DD11" s="5"/>
+      <c r="DE11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF11" s="4"/>
-      <c r="DG11" s="4"/>
-      <c r="DH11" s="4"/>
-      <c r="DI11" s="4" t="s">
+      <c r="DF11" s="5"/>
+      <c r="DG11" s="5"/>
+      <c r="DH11" s="5"/>
+      <c r="DI11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ11" s="4"/>
-      <c r="DK11" s="4"/>
-      <c r="DL11" s="4"/>
-      <c r="DM11" s="4" t="s">
+      <c r="DJ11" s="5"/>
+      <c r="DK11" s="5"/>
+      <c r="DL11" s="5"/>
+      <c r="DM11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN11" s="4"/>
-      <c r="DO11" s="4"/>
-      <c r="DP11" s="4"/>
-      <c r="DQ11" s="4" t="s">
+      <c r="DN11" s="5"/>
+      <c r="DO11" s="5"/>
+      <c r="DP11" s="5"/>
+      <c r="DQ11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR11" s="4"/>
-      <c r="DS11" s="4"/>
-      <c r="DT11" s="4"/>
-      <c r="DU11" s="4" t="s">
+      <c r="DR11" s="5"/>
+      <c r="DS11" s="5"/>
+      <c r="DT11" s="5"/>
+      <c r="DU11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV11" s="4"/>
-      <c r="DW11" s="4"/>
-      <c r="DX11" s="4"/>
-      <c r="DY11" s="4" t="s">
+      <c r="DV11" s="5"/>
+      <c r="DW11" s="5"/>
+      <c r="DX11" s="5"/>
+      <c r="DY11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ11" s="4"/>
-      <c r="EA11" s="4"/>
-      <c r="EB11" s="4"/>
-      <c r="EC11" s="4" t="s">
+      <c r="DZ11" s="5"/>
+      <c r="EA11" s="5"/>
+      <c r="EB11" s="5"/>
+      <c r="EC11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED11" s="4"/>
-      <c r="EE11" s="4"/>
-      <c r="EF11" s="4"/>
+      <c r="ED11" s="5"/>
+      <c r="EE11" s="5"/>
+      <c r="EF11" s="5"/>
       <c r="EG11" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH11" s="4"/>
-      <c r="EI11" s="4"/>
-      <c r="EJ11" s="4"/>
-      <c r="EK11" s="4"/>
-      <c r="EL11" s="4"/>
-      <c r="EM11" s="4"/>
-      <c r="EN11" s="4"/>
-      <c r="EO11" s="4"/>
-      <c r="EP11" s="4"/>
-      <c r="EQ11" s="4"/>
-      <c r="ER11" s="4"/>
-      <c r="ES11" s="4"/>
-      <c r="ET11" s="4"/>
-      <c r="EU11" s="4"/>
-      <c r="EV11" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH11" s="5"/>
+      <c r="EI11" s="5"/>
+      <c r="EJ11" s="5"/>
+      <c r="EK11" s="5"/>
+      <c r="EL11" s="5"/>
+      <c r="EM11" s="5"/>
+      <c r="EN11" s="5"/>
+      <c r="EO11" s="5"/>
+      <c r="EP11" s="5"/>
+      <c r="EQ11" s="5"/>
+      <c r="ER11" s="5"/>
+      <c r="ES11" s="5"/>
+      <c r="ET11" s="5"/>
+      <c r="EU11" s="5"/>
+      <c r="EV11" s="5"/>
     </row>
-    <row r="12" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:152">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -4775,10 +5392,10 @@
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -4793,10 +5410,10 @@
         <v>14</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -4805,10 +5422,10 @@
         <v>17</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X12" s="2">
         <v>1</v>
@@ -4823,10 +5440,10 @@
         <v>21</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AF12" s="2">
         <v>0</v>
@@ -4865,10 +5482,10 @@
         <v>35</v>
       </c>
       <c r="BB12" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BC12" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BD12" s="2">
         <v>1</v>
@@ -4939,80 +5556,80 @@
       <c r="CT12" s="2"/>
       <c r="CU12" s="2"/>
       <c r="CV12" s="2"/>
-      <c r="CW12" s="4" t="s">
+      <c r="CW12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX12" s="4"/>
-      <c r="CY12" s="4"/>
-      <c r="CZ12" s="4"/>
-      <c r="DA12" s="4" t="s">
+      <c r="CX12" s="5"/>
+      <c r="CY12" s="5"/>
+      <c r="CZ12" s="5"/>
+      <c r="DA12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB12" s="4"/>
-      <c r="DC12" s="4"/>
-      <c r="DD12" s="4"/>
-      <c r="DE12" s="4" t="s">
+      <c r="DB12" s="5"/>
+      <c r="DC12" s="5"/>
+      <c r="DD12" s="5"/>
+      <c r="DE12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF12" s="4"/>
-      <c r="DG12" s="4"/>
-      <c r="DH12" s="4"/>
-      <c r="DI12" s="4" t="s">
+      <c r="DF12" s="5"/>
+      <c r="DG12" s="5"/>
+      <c r="DH12" s="5"/>
+      <c r="DI12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ12" s="4"/>
-      <c r="DK12" s="4"/>
-      <c r="DL12" s="4"/>
-      <c r="DM12" s="4" t="s">
+      <c r="DJ12" s="5"/>
+      <c r="DK12" s="5"/>
+      <c r="DL12" s="5"/>
+      <c r="DM12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN12" s="4"/>
-      <c r="DO12" s="4"/>
-      <c r="DP12" s="4"/>
-      <c r="DQ12" s="4" t="s">
+      <c r="DN12" s="5"/>
+      <c r="DO12" s="5"/>
+      <c r="DP12" s="5"/>
+      <c r="DQ12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR12" s="4"/>
-      <c r="DS12" s="4"/>
-      <c r="DT12" s="4"/>
-      <c r="DU12" s="4" t="s">
+      <c r="DR12" s="5"/>
+      <c r="DS12" s="5"/>
+      <c r="DT12" s="5"/>
+      <c r="DU12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV12" s="4"/>
-      <c r="DW12" s="4"/>
-      <c r="DX12" s="4"/>
-      <c r="DY12" s="4" t="s">
+      <c r="DV12" s="5"/>
+      <c r="DW12" s="5"/>
+      <c r="DX12" s="5"/>
+      <c r="DY12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ12" s="4"/>
-      <c r="EA12" s="4"/>
-      <c r="EB12" s="4"/>
-      <c r="EC12" s="4" t="s">
+      <c r="DZ12" s="5"/>
+      <c r="EA12" s="5"/>
+      <c r="EB12" s="5"/>
+      <c r="EC12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED12" s="4"/>
-      <c r="EE12" s="4"/>
-      <c r="EF12" s="4"/>
+      <c r="ED12" s="5"/>
+      <c r="EE12" s="5"/>
+      <c r="EF12" s="5"/>
       <c r="EG12" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH12" s="4"/>
-      <c r="EI12" s="4"/>
-      <c r="EJ12" s="4"/>
-      <c r="EK12" s="4"/>
-      <c r="EL12" s="4"/>
-      <c r="EM12" s="4"/>
-      <c r="EN12" s="4"/>
-      <c r="EO12" s="4"/>
-      <c r="EP12" s="4"/>
-      <c r="EQ12" s="4"/>
-      <c r="ER12" s="4"/>
-      <c r="ES12" s="4"/>
-      <c r="ET12" s="4"/>
-      <c r="EU12" s="4"/>
-      <c r="EV12" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH12" s="5"/>
+      <c r="EI12" s="5"/>
+      <c r="EJ12" s="5"/>
+      <c r="EK12" s="5"/>
+      <c r="EL12" s="5"/>
+      <c r="EM12" s="5"/>
+      <c r="EN12" s="5"/>
+      <c r="EO12" s="5"/>
+      <c r="EP12" s="5"/>
+      <c r="EQ12" s="5"/>
+      <c r="ER12" s="5"/>
+      <c r="ES12" s="5"/>
+      <c r="ET12" s="5"/>
+      <c r="EU12" s="5"/>
+      <c r="EV12" s="5"/>
     </row>
-    <row r="13" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:152">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -5041,10 +5658,10 @@
         <v>14</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="T13" s="2">
         <v>1</v>
@@ -5053,10 +5670,10 @@
         <v>17</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="X13" s="2">
         <v>1</v>
@@ -5071,10 +5688,10 @@
         <v>21</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF13" s="2">
         <v>0</v>
@@ -5113,10 +5730,10 @@
         <v>35</v>
       </c>
       <c r="BB13" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="BC13" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BD13" s="2">
         <v>0</v>
@@ -5187,80 +5804,80 @@
       <c r="CT13" s="2"/>
       <c r="CU13" s="2"/>
       <c r="CV13" s="2"/>
-      <c r="CW13" s="4" t="s">
+      <c r="CW13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX13" s="4"/>
-      <c r="CY13" s="4"/>
-      <c r="CZ13" s="4"/>
-      <c r="DA13" s="4" t="s">
+      <c r="CX13" s="5"/>
+      <c r="CY13" s="5"/>
+      <c r="CZ13" s="5"/>
+      <c r="DA13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB13" s="4"/>
-      <c r="DC13" s="4"/>
-      <c r="DD13" s="4"/>
-      <c r="DE13" s="4" t="s">
+      <c r="DB13" s="5"/>
+      <c r="DC13" s="5"/>
+      <c r="DD13" s="5"/>
+      <c r="DE13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF13" s="4"/>
-      <c r="DG13" s="4"/>
-      <c r="DH13" s="4"/>
-      <c r="DI13" s="4" t="s">
+      <c r="DF13" s="5"/>
+      <c r="DG13" s="5"/>
+      <c r="DH13" s="5"/>
+      <c r="DI13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ13" s="4"/>
-      <c r="DK13" s="4"/>
-      <c r="DL13" s="4"/>
-      <c r="DM13" s="4" t="s">
+      <c r="DJ13" s="5"/>
+      <c r="DK13" s="5"/>
+      <c r="DL13" s="5"/>
+      <c r="DM13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN13" s="4"/>
-      <c r="DO13" s="4"/>
-      <c r="DP13" s="4"/>
-      <c r="DQ13" s="4" t="s">
+      <c r="DN13" s="5"/>
+      <c r="DO13" s="5"/>
+      <c r="DP13" s="5"/>
+      <c r="DQ13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR13" s="4"/>
-      <c r="DS13" s="4"/>
-      <c r="DT13" s="4"/>
-      <c r="DU13" s="4" t="s">
+      <c r="DR13" s="5"/>
+      <c r="DS13" s="5"/>
+      <c r="DT13" s="5"/>
+      <c r="DU13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV13" s="4"/>
-      <c r="DW13" s="4"/>
-      <c r="DX13" s="4"/>
-      <c r="DY13" s="4" t="s">
+      <c r="DV13" s="5"/>
+      <c r="DW13" s="5"/>
+      <c r="DX13" s="5"/>
+      <c r="DY13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ13" s="4"/>
-      <c r="EA13" s="4"/>
-      <c r="EB13" s="4"/>
-      <c r="EC13" s="4" t="s">
+      <c r="DZ13" s="5"/>
+      <c r="EA13" s="5"/>
+      <c r="EB13" s="5"/>
+      <c r="EC13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED13" s="4"/>
-      <c r="EE13" s="4"/>
-      <c r="EF13" s="4"/>
+      <c r="ED13" s="5"/>
+      <c r="EE13" s="5"/>
+      <c r="EF13" s="5"/>
       <c r="EG13" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH13" s="4"/>
-      <c r="EI13" s="4"/>
-      <c r="EJ13" s="4"/>
-      <c r="EK13" s="4"/>
-      <c r="EL13" s="4"/>
-      <c r="EM13" s="4"/>
-      <c r="EN13" s="4"/>
-      <c r="EO13" s="4"/>
-      <c r="EP13" s="4"/>
-      <c r="EQ13" s="4"/>
-      <c r="ER13" s="4"/>
-      <c r="ES13" s="4"/>
-      <c r="ET13" s="4"/>
-      <c r="EU13" s="4"/>
-      <c r="EV13" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH13" s="5"/>
+      <c r="EI13" s="5"/>
+      <c r="EJ13" s="5"/>
+      <c r="EK13" s="5"/>
+      <c r="EL13" s="5"/>
+      <c r="EM13" s="5"/>
+      <c r="EN13" s="5"/>
+      <c r="EO13" s="5"/>
+      <c r="EP13" s="5"/>
+      <c r="EQ13" s="5"/>
+      <c r="ER13" s="5"/>
+      <c r="ES13" s="5"/>
+      <c r="ET13" s="5"/>
+      <c r="EU13" s="5"/>
+      <c r="EV13" s="5"/>
     </row>
-    <row r="14" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:152">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -5292,7 +5909,7 @@
         <v>77</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
@@ -5301,10 +5918,10 @@
         <v>17</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X14" s="2">
         <v>0</v>
@@ -5319,10 +5936,10 @@
         <v>21</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF14" s="2">
         <v>1</v>
@@ -5435,80 +6052,80 @@
       <c r="CT14" s="2"/>
       <c r="CU14" s="2"/>
       <c r="CV14" s="2"/>
-      <c r="CW14" s="4" t="s">
+      <c r="CW14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX14" s="4"/>
-      <c r="CY14" s="4"/>
-      <c r="CZ14" s="4"/>
-      <c r="DA14" s="4" t="s">
+      <c r="CX14" s="5"/>
+      <c r="CY14" s="5"/>
+      <c r="CZ14" s="5"/>
+      <c r="DA14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB14" s="4"/>
-      <c r="DC14" s="4"/>
-      <c r="DD14" s="4"/>
-      <c r="DE14" s="4" t="s">
+      <c r="DB14" s="5"/>
+      <c r="DC14" s="5"/>
+      <c r="DD14" s="5"/>
+      <c r="DE14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF14" s="4"/>
-      <c r="DG14" s="4"/>
-      <c r="DH14" s="4"/>
-      <c r="DI14" s="4" t="s">
+      <c r="DF14" s="5"/>
+      <c r="DG14" s="5"/>
+      <c r="DH14" s="5"/>
+      <c r="DI14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ14" s="4"/>
-      <c r="DK14" s="4"/>
-      <c r="DL14" s="4"/>
-      <c r="DM14" s="4" t="s">
+      <c r="DJ14" s="5"/>
+      <c r="DK14" s="5"/>
+      <c r="DL14" s="5"/>
+      <c r="DM14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN14" s="4"/>
-      <c r="DO14" s="4"/>
-      <c r="DP14" s="4"/>
-      <c r="DQ14" s="4" t="s">
+      <c r="DN14" s="5"/>
+      <c r="DO14" s="5"/>
+      <c r="DP14" s="5"/>
+      <c r="DQ14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR14" s="4"/>
-      <c r="DS14" s="4"/>
-      <c r="DT14" s="4"/>
-      <c r="DU14" s="4" t="s">
+      <c r="DR14" s="5"/>
+      <c r="DS14" s="5"/>
+      <c r="DT14" s="5"/>
+      <c r="DU14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV14" s="4"/>
-      <c r="DW14" s="4"/>
-      <c r="DX14" s="4"/>
-      <c r="DY14" s="4" t="s">
+      <c r="DV14" s="5"/>
+      <c r="DW14" s="5"/>
+      <c r="DX14" s="5"/>
+      <c r="DY14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ14" s="4"/>
-      <c r="EA14" s="4"/>
-      <c r="EB14" s="4"/>
-      <c r="EC14" s="4" t="s">
+      <c r="DZ14" s="5"/>
+      <c r="EA14" s="5"/>
+      <c r="EB14" s="5"/>
+      <c r="EC14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED14" s="4"/>
-      <c r="EE14" s="4"/>
-      <c r="EF14" s="4"/>
+      <c r="ED14" s="5"/>
+      <c r="EE14" s="5"/>
+      <c r="EF14" s="5"/>
       <c r="EG14" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH14" s="4"/>
-      <c r="EI14" s="4"/>
-      <c r="EJ14" s="4"/>
-      <c r="EK14" s="4"/>
-      <c r="EL14" s="4"/>
-      <c r="EM14" s="4"/>
-      <c r="EN14" s="4"/>
-      <c r="EO14" s="4"/>
-      <c r="EP14" s="4"/>
-      <c r="EQ14" s="4"/>
-      <c r="ER14" s="4"/>
-      <c r="ES14" s="4"/>
-      <c r="ET14" s="4"/>
-      <c r="EU14" s="4"/>
-      <c r="EV14" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH14" s="5"/>
+      <c r="EI14" s="5"/>
+      <c r="EJ14" s="5"/>
+      <c r="EK14" s="5"/>
+      <c r="EL14" s="5"/>
+      <c r="EM14" s="5"/>
+      <c r="EN14" s="5"/>
+      <c r="EO14" s="5"/>
+      <c r="EP14" s="5"/>
+      <c r="EQ14" s="5"/>
+      <c r="ER14" s="5"/>
+      <c r="ES14" s="5"/>
+      <c r="ET14" s="5"/>
+      <c r="EU14" s="5"/>
+      <c r="EV14" s="5"/>
     </row>
-    <row r="15" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:152">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -5537,10 +6154,10 @@
         <v>14</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="T15" s="2">
         <v>1</v>
@@ -5549,10 +6166,10 @@
         <v>17</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="X15" s="2">
         <v>0</v>
@@ -5567,10 +6184,10 @@
         <v>21</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF15" s="2">
         <v>1</v>
@@ -5609,10 +6226,10 @@
         <v>35</v>
       </c>
       <c r="BB15" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BC15" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BD15" s="2">
         <v>1</v>
@@ -5683,80 +6300,80 @@
       <c r="CT15" s="2"/>
       <c r="CU15" s="2"/>
       <c r="CV15" s="2"/>
-      <c r="CW15" s="4" t="s">
+      <c r="CW15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX15" s="4"/>
-      <c r="CY15" s="4"/>
-      <c r="CZ15" s="4"/>
-      <c r="DA15" s="4" t="s">
+      <c r="CX15" s="5"/>
+      <c r="CY15" s="5"/>
+      <c r="CZ15" s="5"/>
+      <c r="DA15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB15" s="4"/>
-      <c r="DC15" s="4"/>
-      <c r="DD15" s="4"/>
-      <c r="DE15" s="4" t="s">
+      <c r="DB15" s="5"/>
+      <c r="DC15" s="5"/>
+      <c r="DD15" s="5"/>
+      <c r="DE15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF15" s="4"/>
-      <c r="DG15" s="4"/>
-      <c r="DH15" s="4"/>
-      <c r="DI15" s="4" t="s">
+      <c r="DF15" s="5"/>
+      <c r="DG15" s="5"/>
+      <c r="DH15" s="5"/>
+      <c r="DI15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ15" s="4"/>
-      <c r="DK15" s="4"/>
-      <c r="DL15" s="4"/>
-      <c r="DM15" s="4" t="s">
+      <c r="DJ15" s="5"/>
+      <c r="DK15" s="5"/>
+      <c r="DL15" s="5"/>
+      <c r="DM15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN15" s="4"/>
-      <c r="DO15" s="4"/>
-      <c r="DP15" s="4"/>
-      <c r="DQ15" s="4" t="s">
+      <c r="DN15" s="5"/>
+      <c r="DO15" s="5"/>
+      <c r="DP15" s="5"/>
+      <c r="DQ15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR15" s="4"/>
-      <c r="DS15" s="4"/>
-      <c r="DT15" s="4"/>
-      <c r="DU15" s="4" t="s">
+      <c r="DR15" s="5"/>
+      <c r="DS15" s="5"/>
+      <c r="DT15" s="5"/>
+      <c r="DU15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV15" s="4"/>
-      <c r="DW15" s="4"/>
-      <c r="DX15" s="4"/>
-      <c r="DY15" s="4" t="s">
+      <c r="DV15" s="5"/>
+      <c r="DW15" s="5"/>
+      <c r="DX15" s="5"/>
+      <c r="DY15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ15" s="4"/>
-      <c r="EA15" s="4"/>
-      <c r="EB15" s="4"/>
-      <c r="EC15" s="4" t="s">
+      <c r="DZ15" s="5"/>
+      <c r="EA15" s="5"/>
+      <c r="EB15" s="5"/>
+      <c r="EC15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED15" s="4"/>
-      <c r="EE15" s="4"/>
-      <c r="EF15" s="4"/>
+      <c r="ED15" s="5"/>
+      <c r="EE15" s="5"/>
+      <c r="EF15" s="5"/>
       <c r="EG15" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH15" s="4"/>
-      <c r="EI15" s="4"/>
-      <c r="EJ15" s="4"/>
-      <c r="EK15" s="4"/>
-      <c r="EL15" s="4"/>
-      <c r="EM15" s="4"/>
-      <c r="EN15" s="4"/>
-      <c r="EO15" s="4"/>
-      <c r="EP15" s="4"/>
-      <c r="EQ15" s="4"/>
-      <c r="ER15" s="4"/>
-      <c r="ES15" s="4"/>
-      <c r="ET15" s="4"/>
-      <c r="EU15" s="4"/>
-      <c r="EV15" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH15" s="5"/>
+      <c r="EI15" s="5"/>
+      <c r="EJ15" s="5"/>
+      <c r="EK15" s="5"/>
+      <c r="EL15" s="5"/>
+      <c r="EM15" s="5"/>
+      <c r="EN15" s="5"/>
+      <c r="EO15" s="5"/>
+      <c r="EP15" s="5"/>
+      <c r="EQ15" s="5"/>
+      <c r="ER15" s="5"/>
+      <c r="ES15" s="5"/>
+      <c r="ET15" s="5"/>
+      <c r="EU15" s="5"/>
+      <c r="EV15" s="5"/>
     </row>
-    <row r="16" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:152">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -5785,10 +6402,10 @@
         <v>14</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="T16" s="2">
         <v>1</v>
@@ -5808,11 +6425,15 @@
       <c r="AC16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AD16" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
+      <c r="AD16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>1</v>
+      </c>
       <c r="AG16" s="2" t="s">
         <v>22</v>
       </c>
@@ -5847,10 +6468,10 @@
         <v>35</v>
       </c>
       <c r="BB16" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BC16" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BD16" s="2">
         <v>0</v>
@@ -5921,80 +6542,80 @@
       <c r="CT16" s="2"/>
       <c r="CU16" s="2"/>
       <c r="CV16" s="2"/>
-      <c r="CW16" s="4" t="s">
+      <c r="CW16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX16" s="4"/>
-      <c r="CY16" s="4"/>
-      <c r="CZ16" s="4"/>
-      <c r="DA16" s="4" t="s">
+      <c r="CX16" s="5"/>
+      <c r="CY16" s="5"/>
+      <c r="CZ16" s="5"/>
+      <c r="DA16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB16" s="4"/>
-      <c r="DC16" s="4"/>
-      <c r="DD16" s="4"/>
-      <c r="DE16" s="4" t="s">
+      <c r="DB16" s="5"/>
+      <c r="DC16" s="5"/>
+      <c r="DD16" s="5"/>
+      <c r="DE16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF16" s="4"/>
-      <c r="DG16" s="4"/>
-      <c r="DH16" s="4"/>
-      <c r="DI16" s="4" t="s">
+      <c r="DF16" s="5"/>
+      <c r="DG16" s="5"/>
+      <c r="DH16" s="5"/>
+      <c r="DI16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ16" s="4"/>
-      <c r="DK16" s="4"/>
-      <c r="DL16" s="4"/>
-      <c r="DM16" s="4" t="s">
+      <c r="DJ16" s="5"/>
+      <c r="DK16" s="5"/>
+      <c r="DL16" s="5"/>
+      <c r="DM16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN16" s="4"/>
-      <c r="DO16" s="4"/>
-      <c r="DP16" s="4"/>
-      <c r="DQ16" s="4" t="s">
+      <c r="DN16" s="5"/>
+      <c r="DO16" s="5"/>
+      <c r="DP16" s="5"/>
+      <c r="DQ16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR16" s="4"/>
-      <c r="DS16" s="4"/>
-      <c r="DT16" s="4"/>
-      <c r="DU16" s="4" t="s">
+      <c r="DR16" s="5"/>
+      <c r="DS16" s="5"/>
+      <c r="DT16" s="5"/>
+      <c r="DU16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV16" s="4"/>
-      <c r="DW16" s="4"/>
-      <c r="DX16" s="4"/>
-      <c r="DY16" s="4" t="s">
+      <c r="DV16" s="5"/>
+      <c r="DW16" s="5"/>
+      <c r="DX16" s="5"/>
+      <c r="DY16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ16" s="4"/>
-      <c r="EA16" s="4"/>
-      <c r="EB16" s="4"/>
-      <c r="EC16" s="4" t="s">
+      <c r="DZ16" s="5"/>
+      <c r="EA16" s="5"/>
+      <c r="EB16" s="5"/>
+      <c r="EC16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED16" s="4"/>
-      <c r="EE16" s="4"/>
-      <c r="EF16" s="4"/>
+      <c r="ED16" s="5"/>
+      <c r="EE16" s="5"/>
+      <c r="EF16" s="5"/>
       <c r="EG16" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH16" s="4"/>
-      <c r="EI16" s="4"/>
-      <c r="EJ16" s="4"/>
-      <c r="EK16" s="4"/>
-      <c r="EL16" s="4"/>
-      <c r="EM16" s="4"/>
-      <c r="EN16" s="4"/>
-      <c r="EO16" s="4"/>
-      <c r="EP16" s="4"/>
-      <c r="EQ16" s="4"/>
-      <c r="ER16" s="4"/>
-      <c r="ES16" s="4"/>
-      <c r="ET16" s="4"/>
-      <c r="EU16" s="4"/>
-      <c r="EV16" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH16" s="5"/>
+      <c r="EI16" s="5"/>
+      <c r="EJ16" s="5"/>
+      <c r="EK16" s="5"/>
+      <c r="EL16" s="5"/>
+      <c r="EM16" s="5"/>
+      <c r="EN16" s="5"/>
+      <c r="EO16" s="5"/>
+      <c r="EP16" s="5"/>
+      <c r="EQ16" s="5"/>
+      <c r="ER16" s="5"/>
+      <c r="ES16" s="5"/>
+      <c r="ET16" s="5"/>
+      <c r="EU16" s="5"/>
+      <c r="EV16" s="5"/>
     </row>
-    <row r="17" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:152">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -6023,10 +6644,10 @@
         <v>14</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
@@ -6046,11 +6667,15 @@
       <c r="AC17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AD17" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
+      <c r="AD17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>1</v>
+      </c>
       <c r="AG17" s="2" t="s">
         <v>22</v>
       </c>
@@ -6153,80 +6778,80 @@
       <c r="CT17" s="2"/>
       <c r="CU17" s="2"/>
       <c r="CV17" s="2"/>
-      <c r="CW17" s="4" t="s">
+      <c r="CW17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX17" s="4"/>
-      <c r="CY17" s="4"/>
-      <c r="CZ17" s="4"/>
-      <c r="DA17" s="4" t="s">
+      <c r="CX17" s="5"/>
+      <c r="CY17" s="5"/>
+      <c r="CZ17" s="5"/>
+      <c r="DA17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB17" s="4"/>
-      <c r="DC17" s="4"/>
-      <c r="DD17" s="4"/>
-      <c r="DE17" s="4" t="s">
+      <c r="DB17" s="5"/>
+      <c r="DC17" s="5"/>
+      <c r="DD17" s="5"/>
+      <c r="DE17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF17" s="4"/>
-      <c r="DG17" s="4"/>
-      <c r="DH17" s="4"/>
-      <c r="DI17" s="4" t="s">
+      <c r="DF17" s="5"/>
+      <c r="DG17" s="5"/>
+      <c r="DH17" s="5"/>
+      <c r="DI17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ17" s="4"/>
-      <c r="DK17" s="4"/>
-      <c r="DL17" s="4"/>
-      <c r="DM17" s="4" t="s">
+      <c r="DJ17" s="5"/>
+      <c r="DK17" s="5"/>
+      <c r="DL17" s="5"/>
+      <c r="DM17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN17" s="4"/>
-      <c r="DO17" s="4"/>
-      <c r="DP17" s="4"/>
-      <c r="DQ17" s="4" t="s">
+      <c r="DN17" s="5"/>
+      <c r="DO17" s="5"/>
+      <c r="DP17" s="5"/>
+      <c r="DQ17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR17" s="4"/>
-      <c r="DS17" s="4"/>
-      <c r="DT17" s="4"/>
-      <c r="DU17" s="4" t="s">
+      <c r="DR17" s="5"/>
+      <c r="DS17" s="5"/>
+      <c r="DT17" s="5"/>
+      <c r="DU17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV17" s="4"/>
-      <c r="DW17" s="4"/>
-      <c r="DX17" s="4"/>
-      <c r="DY17" s="4" t="s">
+      <c r="DV17" s="5"/>
+      <c r="DW17" s="5"/>
+      <c r="DX17" s="5"/>
+      <c r="DY17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ17" s="4"/>
-      <c r="EA17" s="4"/>
-      <c r="EB17" s="4"/>
-      <c r="EC17" s="4" t="s">
+      <c r="DZ17" s="5"/>
+      <c r="EA17" s="5"/>
+      <c r="EB17" s="5"/>
+      <c r="EC17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED17" s="4"/>
-      <c r="EE17" s="4"/>
-      <c r="EF17" s="4"/>
+      <c r="ED17" s="5"/>
+      <c r="EE17" s="5"/>
+      <c r="EF17" s="5"/>
       <c r="EG17" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH17" s="4"/>
-      <c r="EI17" s="4"/>
-      <c r="EJ17" s="4"/>
-      <c r="EK17" s="4"/>
-      <c r="EL17" s="4"/>
-      <c r="EM17" s="4"/>
-      <c r="EN17" s="4"/>
-      <c r="EO17" s="4"/>
-      <c r="EP17" s="4"/>
-      <c r="EQ17" s="4"/>
-      <c r="ER17" s="4"/>
-      <c r="ES17" s="4"/>
-      <c r="ET17" s="4"/>
-      <c r="EU17" s="4"/>
-      <c r="EV17" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH17" s="5"/>
+      <c r="EI17" s="5"/>
+      <c r="EJ17" s="5"/>
+      <c r="EK17" s="5"/>
+      <c r="EL17" s="5"/>
+      <c r="EM17" s="5"/>
+      <c r="EN17" s="5"/>
+      <c r="EO17" s="5"/>
+      <c r="EP17" s="5"/>
+      <c r="EQ17" s="5"/>
+      <c r="ER17" s="5"/>
+      <c r="ES17" s="5"/>
+      <c r="ET17" s="5"/>
+      <c r="EU17" s="5"/>
+      <c r="EV17" s="5"/>
     </row>
-    <row r="18" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:152">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -6255,10 +6880,10 @@
         <v>14</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
@@ -6383,80 +7008,80 @@
       <c r="CT18" s="2"/>
       <c r="CU18" s="2"/>
       <c r="CV18" s="2"/>
-      <c r="CW18" s="4" t="s">
+      <c r="CW18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX18" s="4"/>
-      <c r="CY18" s="4"/>
-      <c r="CZ18" s="4"/>
-      <c r="DA18" s="4" t="s">
+      <c r="CX18" s="5"/>
+      <c r="CY18" s="5"/>
+      <c r="CZ18" s="5"/>
+      <c r="DA18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB18" s="4"/>
-      <c r="DC18" s="4"/>
-      <c r="DD18" s="4"/>
-      <c r="DE18" s="4" t="s">
+      <c r="DB18" s="5"/>
+      <c r="DC18" s="5"/>
+      <c r="DD18" s="5"/>
+      <c r="DE18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF18" s="4"/>
-      <c r="DG18" s="4"/>
-      <c r="DH18" s="4"/>
-      <c r="DI18" s="4" t="s">
+      <c r="DF18" s="5"/>
+      <c r="DG18" s="5"/>
+      <c r="DH18" s="5"/>
+      <c r="DI18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ18" s="4"/>
-      <c r="DK18" s="4"/>
-      <c r="DL18" s="4"/>
-      <c r="DM18" s="4" t="s">
+      <c r="DJ18" s="5"/>
+      <c r="DK18" s="5"/>
+      <c r="DL18" s="5"/>
+      <c r="DM18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN18" s="4"/>
-      <c r="DO18" s="4"/>
-      <c r="DP18" s="4"/>
-      <c r="DQ18" s="4" t="s">
+      <c r="DN18" s="5"/>
+      <c r="DO18" s="5"/>
+      <c r="DP18" s="5"/>
+      <c r="DQ18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR18" s="4"/>
-      <c r="DS18" s="4"/>
-      <c r="DT18" s="4"/>
-      <c r="DU18" s="4" t="s">
+      <c r="DR18" s="5"/>
+      <c r="DS18" s="5"/>
+      <c r="DT18" s="5"/>
+      <c r="DU18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV18" s="4"/>
-      <c r="DW18" s="4"/>
-      <c r="DX18" s="4"/>
-      <c r="DY18" s="4" t="s">
+      <c r="DV18" s="5"/>
+      <c r="DW18" s="5"/>
+      <c r="DX18" s="5"/>
+      <c r="DY18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ18" s="4"/>
-      <c r="EA18" s="4"/>
-      <c r="EB18" s="4"/>
-      <c r="EC18" s="4" t="s">
+      <c r="DZ18" s="5"/>
+      <c r="EA18" s="5"/>
+      <c r="EB18" s="5"/>
+      <c r="EC18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED18" s="4"/>
-      <c r="EE18" s="4"/>
-      <c r="EF18" s="4"/>
+      <c r="ED18" s="5"/>
+      <c r="EE18" s="5"/>
+      <c r="EF18" s="5"/>
       <c r="EG18" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH18" s="4"/>
-      <c r="EI18" s="4"/>
-      <c r="EJ18" s="4"/>
-      <c r="EK18" s="4"/>
-      <c r="EL18" s="4"/>
-      <c r="EM18" s="4"/>
-      <c r="EN18" s="4"/>
-      <c r="EO18" s="4"/>
-      <c r="EP18" s="4"/>
-      <c r="EQ18" s="4"/>
-      <c r="ER18" s="4"/>
-      <c r="ES18" s="4"/>
-      <c r="ET18" s="4"/>
-      <c r="EU18" s="4"/>
-      <c r="EV18" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH18" s="5"/>
+      <c r="EI18" s="5"/>
+      <c r="EJ18" s="5"/>
+      <c r="EK18" s="5"/>
+      <c r="EL18" s="5"/>
+      <c r="EM18" s="5"/>
+      <c r="EN18" s="5"/>
+      <c r="EO18" s="5"/>
+      <c r="EP18" s="5"/>
+      <c r="EQ18" s="5"/>
+      <c r="ER18" s="5"/>
+      <c r="ES18" s="5"/>
+      <c r="ET18" s="5"/>
+      <c r="EU18" s="5"/>
+      <c r="EV18" s="5"/>
     </row>
-    <row r="19" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:152">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -6484,11 +7109,15 @@
       <c r="Q19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R19" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="R19" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
       <c r="U19" s="2" t="s">
         <v>17</v>
       </c>
@@ -6609,80 +7238,80 @@
       <c r="CT19" s="2"/>
       <c r="CU19" s="2"/>
       <c r="CV19" s="2"/>
-      <c r="CW19" s="4" t="s">
+      <c r="CW19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX19" s="4"/>
-      <c r="CY19" s="4"/>
-      <c r="CZ19" s="4"/>
-      <c r="DA19" s="4" t="s">
+      <c r="CX19" s="5"/>
+      <c r="CY19" s="5"/>
+      <c r="CZ19" s="5"/>
+      <c r="DA19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB19" s="4"/>
-      <c r="DC19" s="4"/>
-      <c r="DD19" s="4"/>
-      <c r="DE19" s="4" t="s">
+      <c r="DB19" s="5"/>
+      <c r="DC19" s="5"/>
+      <c r="DD19" s="5"/>
+      <c r="DE19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF19" s="4"/>
-      <c r="DG19" s="4"/>
-      <c r="DH19" s="4"/>
-      <c r="DI19" s="4" t="s">
+      <c r="DF19" s="5"/>
+      <c r="DG19" s="5"/>
+      <c r="DH19" s="5"/>
+      <c r="DI19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ19" s="4"/>
-      <c r="DK19" s="4"/>
-      <c r="DL19" s="4"/>
-      <c r="DM19" s="4" t="s">
+      <c r="DJ19" s="5"/>
+      <c r="DK19" s="5"/>
+      <c r="DL19" s="5"/>
+      <c r="DM19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN19" s="4"/>
-      <c r="DO19" s="4"/>
-      <c r="DP19" s="4"/>
-      <c r="DQ19" s="4" t="s">
+      <c r="DN19" s="5"/>
+      <c r="DO19" s="5"/>
+      <c r="DP19" s="5"/>
+      <c r="DQ19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR19" s="4"/>
-      <c r="DS19" s="4"/>
-      <c r="DT19" s="4"/>
-      <c r="DU19" s="4" t="s">
+      <c r="DR19" s="5"/>
+      <c r="DS19" s="5"/>
+      <c r="DT19" s="5"/>
+      <c r="DU19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV19" s="4"/>
-      <c r="DW19" s="4"/>
-      <c r="DX19" s="4"/>
-      <c r="DY19" s="4" t="s">
+      <c r="DV19" s="5"/>
+      <c r="DW19" s="5"/>
+      <c r="DX19" s="5"/>
+      <c r="DY19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ19" s="4"/>
-      <c r="EA19" s="4"/>
-      <c r="EB19" s="4"/>
-      <c r="EC19" s="4" t="s">
+      <c r="DZ19" s="5"/>
+      <c r="EA19" s="5"/>
+      <c r="EB19" s="5"/>
+      <c r="EC19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED19" s="4"/>
-      <c r="EE19" s="4"/>
-      <c r="EF19" s="4"/>
+      <c r="ED19" s="5"/>
+      <c r="EE19" s="5"/>
+      <c r="EF19" s="5"/>
       <c r="EG19" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH19" s="4"/>
-      <c r="EI19" s="4"/>
-      <c r="EJ19" s="4"/>
-      <c r="EK19" s="4"/>
-      <c r="EL19" s="4"/>
-      <c r="EM19" s="4"/>
-      <c r="EN19" s="4"/>
-      <c r="EO19" s="4"/>
-      <c r="EP19" s="4"/>
-      <c r="EQ19" s="4"/>
-      <c r="ER19" s="4"/>
-      <c r="ES19" s="4"/>
-      <c r="ET19" s="4"/>
-      <c r="EU19" s="4"/>
-      <c r="EV19" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH19" s="5"/>
+      <c r="EI19" s="5"/>
+      <c r="EJ19" s="5"/>
+      <c r="EK19" s="5"/>
+      <c r="EL19" s="5"/>
+      <c r="EM19" s="5"/>
+      <c r="EN19" s="5"/>
+      <c r="EO19" s="5"/>
+      <c r="EP19" s="5"/>
+      <c r="EQ19" s="5"/>
+      <c r="ER19" s="5"/>
+      <c r="ES19" s="5"/>
+      <c r="ET19" s="5"/>
+      <c r="EU19" s="5"/>
+      <c r="EV19" s="5"/>
     </row>
-    <row r="20" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:152">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -6833,80 +7462,80 @@
       <c r="CT20" s="2"/>
       <c r="CU20" s="2"/>
       <c r="CV20" s="2"/>
-      <c r="CW20" s="4" t="s">
+      <c r="CW20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX20" s="4"/>
-      <c r="CY20" s="4"/>
-      <c r="CZ20" s="4"/>
-      <c r="DA20" s="4" t="s">
+      <c r="CX20" s="5"/>
+      <c r="CY20" s="5"/>
+      <c r="CZ20" s="5"/>
+      <c r="DA20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB20" s="4"/>
-      <c r="DC20" s="4"/>
-      <c r="DD20" s="4"/>
-      <c r="DE20" s="4" t="s">
+      <c r="DB20" s="5"/>
+      <c r="DC20" s="5"/>
+      <c r="DD20" s="5"/>
+      <c r="DE20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF20" s="4"/>
-      <c r="DG20" s="4"/>
-      <c r="DH20" s="4"/>
-      <c r="DI20" s="4" t="s">
+      <c r="DF20" s="5"/>
+      <c r="DG20" s="5"/>
+      <c r="DH20" s="5"/>
+      <c r="DI20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ20" s="4"/>
-      <c r="DK20" s="4"/>
-      <c r="DL20" s="4"/>
-      <c r="DM20" s="4" t="s">
+      <c r="DJ20" s="5"/>
+      <c r="DK20" s="5"/>
+      <c r="DL20" s="5"/>
+      <c r="DM20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN20" s="4"/>
-      <c r="DO20" s="4"/>
-      <c r="DP20" s="4"/>
-      <c r="DQ20" s="4" t="s">
+      <c r="DN20" s="5"/>
+      <c r="DO20" s="5"/>
+      <c r="DP20" s="5"/>
+      <c r="DQ20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR20" s="4"/>
-      <c r="DS20" s="4"/>
-      <c r="DT20" s="4"/>
-      <c r="DU20" s="4" t="s">
+      <c r="DR20" s="5"/>
+      <c r="DS20" s="5"/>
+      <c r="DT20" s="5"/>
+      <c r="DU20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV20" s="4"/>
-      <c r="DW20" s="4"/>
-      <c r="DX20" s="4"/>
-      <c r="DY20" s="4" t="s">
+      <c r="DV20" s="5"/>
+      <c r="DW20" s="5"/>
+      <c r="DX20" s="5"/>
+      <c r="DY20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ20" s="4"/>
-      <c r="EA20" s="4"/>
-      <c r="EB20" s="4"/>
-      <c r="EC20" s="4" t="s">
+      <c r="DZ20" s="5"/>
+      <c r="EA20" s="5"/>
+      <c r="EB20" s="5"/>
+      <c r="EC20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED20" s="4"/>
-      <c r="EE20" s="4"/>
-      <c r="EF20" s="4"/>
+      <c r="ED20" s="5"/>
+      <c r="EE20" s="5"/>
+      <c r="EF20" s="5"/>
       <c r="EG20" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH20" s="4"/>
-      <c r="EI20" s="4"/>
-      <c r="EJ20" s="4"/>
-      <c r="EK20" s="4"/>
-      <c r="EL20" s="4"/>
-      <c r="EM20" s="4"/>
-      <c r="EN20" s="4"/>
-      <c r="EO20" s="4"/>
-      <c r="EP20" s="4"/>
-      <c r="EQ20" s="4"/>
-      <c r="ER20" s="4"/>
-      <c r="ES20" s="4"/>
-      <c r="ET20" s="4"/>
-      <c r="EU20" s="4"/>
-      <c r="EV20" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH20" s="5"/>
+      <c r="EI20" s="5"/>
+      <c r="EJ20" s="5"/>
+      <c r="EK20" s="5"/>
+      <c r="EL20" s="5"/>
+      <c r="EM20" s="5"/>
+      <c r="EN20" s="5"/>
+      <c r="EO20" s="5"/>
+      <c r="EP20" s="5"/>
+      <c r="EQ20" s="5"/>
+      <c r="ER20" s="5"/>
+      <c r="ES20" s="5"/>
+      <c r="ET20" s="5"/>
+      <c r="EU20" s="5"/>
+      <c r="EV20" s="5"/>
     </row>
-    <row r="21" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:152">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -7057,80 +7686,80 @@
       <c r="CT21" s="2"/>
       <c r="CU21" s="2"/>
       <c r="CV21" s="2"/>
-      <c r="CW21" s="4" t="s">
+      <c r="CW21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX21" s="4"/>
-      <c r="CY21" s="4"/>
-      <c r="CZ21" s="4"/>
-      <c r="DA21" s="4" t="s">
+      <c r="CX21" s="5"/>
+      <c r="CY21" s="5"/>
+      <c r="CZ21" s="5"/>
+      <c r="DA21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB21" s="4"/>
-      <c r="DC21" s="4"/>
-      <c r="DD21" s="4"/>
-      <c r="DE21" s="4" t="s">
+      <c r="DB21" s="5"/>
+      <c r="DC21" s="5"/>
+      <c r="DD21" s="5"/>
+      <c r="DE21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF21" s="4"/>
-      <c r="DG21" s="4"/>
-      <c r="DH21" s="4"/>
-      <c r="DI21" s="4" t="s">
+      <c r="DF21" s="5"/>
+      <c r="DG21" s="5"/>
+      <c r="DH21" s="5"/>
+      <c r="DI21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ21" s="4"/>
-      <c r="DK21" s="4"/>
-      <c r="DL21" s="4"/>
-      <c r="DM21" s="4" t="s">
+      <c r="DJ21" s="5"/>
+      <c r="DK21" s="5"/>
+      <c r="DL21" s="5"/>
+      <c r="DM21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN21" s="4"/>
-      <c r="DO21" s="4"/>
-      <c r="DP21" s="4"/>
-      <c r="DQ21" s="4" t="s">
+      <c r="DN21" s="5"/>
+      <c r="DO21" s="5"/>
+      <c r="DP21" s="5"/>
+      <c r="DQ21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR21" s="4"/>
-      <c r="DS21" s="4"/>
-      <c r="DT21" s="4"/>
-      <c r="DU21" s="4" t="s">
+      <c r="DR21" s="5"/>
+      <c r="DS21" s="5"/>
+      <c r="DT21" s="5"/>
+      <c r="DU21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV21" s="4"/>
-      <c r="DW21" s="4"/>
-      <c r="DX21" s="4"/>
-      <c r="DY21" s="4" t="s">
+      <c r="DV21" s="5"/>
+      <c r="DW21" s="5"/>
+      <c r="DX21" s="5"/>
+      <c r="DY21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ21" s="4"/>
-      <c r="EA21" s="4"/>
-      <c r="EB21" s="4"/>
-      <c r="EC21" s="4" t="s">
+      <c r="DZ21" s="5"/>
+      <c r="EA21" s="5"/>
+      <c r="EB21" s="5"/>
+      <c r="EC21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED21" s="4"/>
-      <c r="EE21" s="4"/>
-      <c r="EF21" s="4"/>
+      <c r="ED21" s="5"/>
+      <c r="EE21" s="5"/>
+      <c r="EF21" s="5"/>
       <c r="EG21" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH21" s="4"/>
-      <c r="EI21" s="4"/>
-      <c r="EJ21" s="4"/>
-      <c r="EK21" s="4"/>
-      <c r="EL21" s="4"/>
-      <c r="EM21" s="4"/>
-      <c r="EN21" s="4"/>
-      <c r="EO21" s="4"/>
-      <c r="EP21" s="4"/>
-      <c r="EQ21" s="4"/>
-      <c r="ER21" s="4"/>
-      <c r="ES21" s="4"/>
-      <c r="ET21" s="4"/>
-      <c r="EU21" s="4"/>
-      <c r="EV21" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH21" s="5"/>
+      <c r="EI21" s="5"/>
+      <c r="EJ21" s="5"/>
+      <c r="EK21" s="5"/>
+      <c r="EL21" s="5"/>
+      <c r="EM21" s="5"/>
+      <c r="EN21" s="5"/>
+      <c r="EO21" s="5"/>
+      <c r="EP21" s="5"/>
+      <c r="EQ21" s="5"/>
+      <c r="ER21" s="5"/>
+      <c r="ES21" s="5"/>
+      <c r="ET21" s="5"/>
+      <c r="EU21" s="5"/>
+      <c r="EV21" s="5"/>
     </row>
-    <row r="22" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:152">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -7281,80 +7910,80 @@
       <c r="CT22" s="2"/>
       <c r="CU22" s="2"/>
       <c r="CV22" s="2"/>
-      <c r="CW22" s="4" t="s">
+      <c r="CW22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX22" s="4"/>
-      <c r="CY22" s="4"/>
-      <c r="CZ22" s="4"/>
-      <c r="DA22" s="4" t="s">
+      <c r="CX22" s="5"/>
+      <c r="CY22" s="5"/>
+      <c r="CZ22" s="5"/>
+      <c r="DA22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB22" s="4"/>
-      <c r="DC22" s="4"/>
-      <c r="DD22" s="4"/>
-      <c r="DE22" s="4" t="s">
+      <c r="DB22" s="5"/>
+      <c r="DC22" s="5"/>
+      <c r="DD22" s="5"/>
+      <c r="DE22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF22" s="4"/>
-      <c r="DG22" s="4"/>
-      <c r="DH22" s="4"/>
-      <c r="DI22" s="4" t="s">
+      <c r="DF22" s="5"/>
+      <c r="DG22" s="5"/>
+      <c r="DH22" s="5"/>
+      <c r="DI22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ22" s="4"/>
-      <c r="DK22" s="4"/>
-      <c r="DL22" s="4"/>
-      <c r="DM22" s="4" t="s">
+      <c r="DJ22" s="5"/>
+      <c r="DK22" s="5"/>
+      <c r="DL22" s="5"/>
+      <c r="DM22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN22" s="4"/>
-      <c r="DO22" s="4"/>
-      <c r="DP22" s="4"/>
-      <c r="DQ22" s="4" t="s">
+      <c r="DN22" s="5"/>
+      <c r="DO22" s="5"/>
+      <c r="DP22" s="5"/>
+      <c r="DQ22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR22" s="4"/>
-      <c r="DS22" s="4"/>
-      <c r="DT22" s="4"/>
-      <c r="DU22" s="4" t="s">
+      <c r="DR22" s="5"/>
+      <c r="DS22" s="5"/>
+      <c r="DT22" s="5"/>
+      <c r="DU22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV22" s="4"/>
-      <c r="DW22" s="4"/>
-      <c r="DX22" s="4"/>
-      <c r="DY22" s="4" t="s">
+      <c r="DV22" s="5"/>
+      <c r="DW22" s="5"/>
+      <c r="DX22" s="5"/>
+      <c r="DY22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ22" s="4"/>
-      <c r="EA22" s="4"/>
-      <c r="EB22" s="4"/>
-      <c r="EC22" s="4" t="s">
+      <c r="DZ22" s="5"/>
+      <c r="EA22" s="5"/>
+      <c r="EB22" s="5"/>
+      <c r="EC22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED22" s="4"/>
-      <c r="EE22" s="4"/>
-      <c r="EF22" s="4"/>
+      <c r="ED22" s="5"/>
+      <c r="EE22" s="5"/>
+      <c r="EF22" s="5"/>
       <c r="EG22" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH22" s="4"/>
-      <c r="EI22" s="4"/>
-      <c r="EJ22" s="4"/>
-      <c r="EK22" s="4"/>
-      <c r="EL22" s="4"/>
-      <c r="EM22" s="4"/>
-      <c r="EN22" s="4"/>
-      <c r="EO22" s="4"/>
-      <c r="EP22" s="4"/>
-      <c r="EQ22" s="4"/>
-      <c r="ER22" s="4"/>
-      <c r="ES22" s="4"/>
-      <c r="ET22" s="4"/>
-      <c r="EU22" s="4"/>
-      <c r="EV22" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH22" s="5"/>
+      <c r="EI22" s="5"/>
+      <c r="EJ22" s="5"/>
+      <c r="EK22" s="5"/>
+      <c r="EL22" s="5"/>
+      <c r="EM22" s="5"/>
+      <c r="EN22" s="5"/>
+      <c r="EO22" s="5"/>
+      <c r="EP22" s="5"/>
+      <c r="EQ22" s="5"/>
+      <c r="ER22" s="5"/>
+      <c r="ES22" s="5"/>
+      <c r="ET22" s="5"/>
+      <c r="EU22" s="5"/>
+      <c r="EV22" s="5"/>
     </row>
-    <row r="23" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:152">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -7505,80 +8134,80 @@
       <c r="CT23" s="2"/>
       <c r="CU23" s="2"/>
       <c r="CV23" s="2"/>
-      <c r="CW23" s="4" t="s">
+      <c r="CW23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX23" s="4"/>
-      <c r="CY23" s="4"/>
-      <c r="CZ23" s="4"/>
-      <c r="DA23" s="4" t="s">
+      <c r="CX23" s="5"/>
+      <c r="CY23" s="5"/>
+      <c r="CZ23" s="5"/>
+      <c r="DA23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB23" s="4"/>
-      <c r="DC23" s="4"/>
-      <c r="DD23" s="4"/>
-      <c r="DE23" s="4" t="s">
+      <c r="DB23" s="5"/>
+      <c r="DC23" s="5"/>
+      <c r="DD23" s="5"/>
+      <c r="DE23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF23" s="4"/>
-      <c r="DG23" s="4"/>
-      <c r="DH23" s="4"/>
-      <c r="DI23" s="4" t="s">
+      <c r="DF23" s="5"/>
+      <c r="DG23" s="5"/>
+      <c r="DH23" s="5"/>
+      <c r="DI23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ23" s="4"/>
-      <c r="DK23" s="4"/>
-      <c r="DL23" s="4"/>
-      <c r="DM23" s="4" t="s">
+      <c r="DJ23" s="5"/>
+      <c r="DK23" s="5"/>
+      <c r="DL23" s="5"/>
+      <c r="DM23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN23" s="4"/>
-      <c r="DO23" s="4"/>
-      <c r="DP23" s="4"/>
-      <c r="DQ23" s="4" t="s">
+      <c r="DN23" s="5"/>
+      <c r="DO23" s="5"/>
+      <c r="DP23" s="5"/>
+      <c r="DQ23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR23" s="4"/>
-      <c r="DS23" s="4"/>
-      <c r="DT23" s="4"/>
-      <c r="DU23" s="4" t="s">
+      <c r="DR23" s="5"/>
+      <c r="DS23" s="5"/>
+      <c r="DT23" s="5"/>
+      <c r="DU23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV23" s="4"/>
-      <c r="DW23" s="4"/>
-      <c r="DX23" s="4"/>
-      <c r="DY23" s="4" t="s">
+      <c r="DV23" s="5"/>
+      <c r="DW23" s="5"/>
+      <c r="DX23" s="5"/>
+      <c r="DY23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ23" s="4"/>
-      <c r="EA23" s="4"/>
-      <c r="EB23" s="4"/>
-      <c r="EC23" s="4" t="s">
+      <c r="DZ23" s="5"/>
+      <c r="EA23" s="5"/>
+      <c r="EB23" s="5"/>
+      <c r="EC23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED23" s="4"/>
-      <c r="EE23" s="4"/>
-      <c r="EF23" s="4"/>
+      <c r="ED23" s="5"/>
+      <c r="EE23" s="5"/>
+      <c r="EF23" s="5"/>
       <c r="EG23" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH23" s="4"/>
-      <c r="EI23" s="4"/>
-      <c r="EJ23" s="4"/>
-      <c r="EK23" s="4"/>
-      <c r="EL23" s="4"/>
-      <c r="EM23" s="4"/>
-      <c r="EN23" s="4"/>
-      <c r="EO23" s="4"/>
-      <c r="EP23" s="4"/>
-      <c r="EQ23" s="4"/>
-      <c r="ER23" s="4"/>
-      <c r="ES23" s="4"/>
-      <c r="ET23" s="4"/>
-      <c r="EU23" s="4"/>
-      <c r="EV23" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH23" s="5"/>
+      <c r="EI23" s="5"/>
+      <c r="EJ23" s="5"/>
+      <c r="EK23" s="5"/>
+      <c r="EL23" s="5"/>
+      <c r="EM23" s="5"/>
+      <c r="EN23" s="5"/>
+      <c r="EO23" s="5"/>
+      <c r="EP23" s="5"/>
+      <c r="EQ23" s="5"/>
+      <c r="ER23" s="5"/>
+      <c r="ES23" s="5"/>
+      <c r="ET23" s="5"/>
+      <c r="EU23" s="5"/>
+      <c r="EV23" s="5"/>
     </row>
-    <row r="24" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:152">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
@@ -7729,80 +8358,80 @@
       <c r="CT24" s="2"/>
       <c r="CU24" s="2"/>
       <c r="CV24" s="2"/>
-      <c r="CW24" s="4" t="s">
+      <c r="CW24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX24" s="4"/>
-      <c r="CY24" s="4"/>
-      <c r="CZ24" s="4"/>
-      <c r="DA24" s="4" t="s">
+      <c r="CX24" s="5"/>
+      <c r="CY24" s="5"/>
+      <c r="CZ24" s="5"/>
+      <c r="DA24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB24" s="4"/>
-      <c r="DC24" s="4"/>
-      <c r="DD24" s="4"/>
-      <c r="DE24" s="4" t="s">
+      <c r="DB24" s="5"/>
+      <c r="DC24" s="5"/>
+      <c r="DD24" s="5"/>
+      <c r="DE24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF24" s="4"/>
-      <c r="DG24" s="4"/>
-      <c r="DH24" s="4"/>
-      <c r="DI24" s="4" t="s">
+      <c r="DF24" s="5"/>
+      <c r="DG24" s="5"/>
+      <c r="DH24" s="5"/>
+      <c r="DI24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ24" s="4"/>
-      <c r="DK24" s="4"/>
-      <c r="DL24" s="4"/>
-      <c r="DM24" s="4" t="s">
+      <c r="DJ24" s="5"/>
+      <c r="DK24" s="5"/>
+      <c r="DL24" s="5"/>
+      <c r="DM24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN24" s="4"/>
-      <c r="DO24" s="4"/>
-      <c r="DP24" s="4"/>
-      <c r="DQ24" s="4" t="s">
+      <c r="DN24" s="5"/>
+      <c r="DO24" s="5"/>
+      <c r="DP24" s="5"/>
+      <c r="DQ24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR24" s="4"/>
-      <c r="DS24" s="4"/>
-      <c r="DT24" s="4"/>
-      <c r="DU24" s="4" t="s">
+      <c r="DR24" s="5"/>
+      <c r="DS24" s="5"/>
+      <c r="DT24" s="5"/>
+      <c r="DU24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV24" s="4"/>
-      <c r="DW24" s="4"/>
-      <c r="DX24" s="4"/>
-      <c r="DY24" s="4" t="s">
+      <c r="DV24" s="5"/>
+      <c r="DW24" s="5"/>
+      <c r="DX24" s="5"/>
+      <c r="DY24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ24" s="4"/>
-      <c r="EA24" s="4"/>
-      <c r="EB24" s="4"/>
-      <c r="EC24" s="4" t="s">
+      <c r="DZ24" s="5"/>
+      <c r="EA24" s="5"/>
+      <c r="EB24" s="5"/>
+      <c r="EC24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED24" s="4"/>
-      <c r="EE24" s="4"/>
-      <c r="EF24" s="4"/>
+      <c r="ED24" s="5"/>
+      <c r="EE24" s="5"/>
+      <c r="EF24" s="5"/>
       <c r="EG24" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH24" s="4"/>
-      <c r="EI24" s="4"/>
-      <c r="EJ24" s="4"/>
-      <c r="EK24" s="4"/>
-      <c r="EL24" s="4"/>
-      <c r="EM24" s="4"/>
-      <c r="EN24" s="4"/>
-      <c r="EO24" s="4"/>
-      <c r="EP24" s="4"/>
-      <c r="EQ24" s="4"/>
-      <c r="ER24" s="4"/>
-      <c r="ES24" s="4"/>
-      <c r="ET24" s="4"/>
-      <c r="EU24" s="4"/>
-      <c r="EV24" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH24" s="5"/>
+      <c r="EI24" s="5"/>
+      <c r="EJ24" s="5"/>
+      <c r="EK24" s="5"/>
+      <c r="EL24" s="5"/>
+      <c r="EM24" s="5"/>
+      <c r="EN24" s="5"/>
+      <c r="EO24" s="5"/>
+      <c r="EP24" s="5"/>
+      <c r="EQ24" s="5"/>
+      <c r="ER24" s="5"/>
+      <c r="ES24" s="5"/>
+      <c r="ET24" s="5"/>
+      <c r="EU24" s="5"/>
+      <c r="EV24" s="5"/>
     </row>
-    <row r="25" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:152">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -7953,85 +8582,85 @@
       <c r="CT25" s="2"/>
       <c r="CU25" s="2"/>
       <c r="CV25" s="2"/>
-      <c r="CW25" s="4" t="s">
+      <c r="CW25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="CX25" s="4"/>
-      <c r="CY25" s="4"/>
-      <c r="CZ25" s="4"/>
-      <c r="DA25" s="4" t="s">
+      <c r="CX25" s="5"/>
+      <c r="CY25" s="5"/>
+      <c r="CZ25" s="5"/>
+      <c r="DA25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DB25" s="4"/>
-      <c r="DC25" s="4"/>
-      <c r="DD25" s="4"/>
-      <c r="DE25" s="4" t="s">
+      <c r="DB25" s="5"/>
+      <c r="DC25" s="5"/>
+      <c r="DD25" s="5"/>
+      <c r="DE25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DF25" s="4"/>
-      <c r="DG25" s="4"/>
-      <c r="DH25" s="4"/>
-      <c r="DI25" s="4" t="s">
+      <c r="DF25" s="5"/>
+      <c r="DG25" s="5"/>
+      <c r="DH25" s="5"/>
+      <c r="DI25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DJ25" s="4"/>
-      <c r="DK25" s="4"/>
-      <c r="DL25" s="4"/>
-      <c r="DM25" s="4" t="s">
+      <c r="DJ25" s="5"/>
+      <c r="DK25" s="5"/>
+      <c r="DL25" s="5"/>
+      <c r="DM25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DN25" s="4"/>
-      <c r="DO25" s="4"/>
-      <c r="DP25" s="4"/>
-      <c r="DQ25" s="4" t="s">
+      <c r="DN25" s="5"/>
+      <c r="DO25" s="5"/>
+      <c r="DP25" s="5"/>
+      <c r="DQ25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="DR25" s="4"/>
-      <c r="DS25" s="4"/>
-      <c r="DT25" s="4"/>
-      <c r="DU25" s="4" t="s">
+      <c r="DR25" s="5"/>
+      <c r="DS25" s="5"/>
+      <c r="DT25" s="5"/>
+      <c r="DU25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="DV25" s="4"/>
-      <c r="DW25" s="4"/>
-      <c r="DX25" s="4"/>
-      <c r="DY25" s="4" t="s">
+      <c r="DV25" s="5"/>
+      <c r="DW25" s="5"/>
+      <c r="DX25" s="5"/>
+      <c r="DY25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="DZ25" s="4"/>
-      <c r="EA25" s="4"/>
-      <c r="EB25" s="4"/>
-      <c r="EC25" s="4" t="s">
+      <c r="DZ25" s="5"/>
+      <c r="EA25" s="5"/>
+      <c r="EB25" s="5"/>
+      <c r="EC25" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="ED25" s="4"/>
-      <c r="EE25" s="4"/>
-      <c r="EF25" s="4"/>
+      <c r="ED25" s="5"/>
+      <c r="EE25" s="5"/>
+      <c r="EF25" s="5"/>
       <c r="EG25" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH25" s="4"/>
-      <c r="EI25" s="4"/>
-      <c r="EJ25" s="4"/>
-      <c r="EK25" s="4"/>
-      <c r="EL25" s="4"/>
-      <c r="EM25" s="4"/>
-      <c r="EN25" s="4"/>
-      <c r="EO25" s="4"/>
-      <c r="EP25" s="4"/>
-      <c r="EQ25" s="4"/>
-      <c r="ER25" s="4"/>
-      <c r="ES25" s="4"/>
-      <c r="ET25" s="4"/>
-      <c r="EU25" s="4"/>
-      <c r="EV25" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="EH25" s="5"/>
+      <c r="EI25" s="5"/>
+      <c r="EJ25" s="5"/>
+      <c r="EK25" s="5"/>
+      <c r="EL25" s="5"/>
+      <c r="EM25" s="5"/>
+      <c r="EN25" s="5"/>
+      <c r="EO25" s="5"/>
+      <c r="EP25" s="5"/>
+      <c r="EQ25" s="5"/>
+      <c r="ER25" s="5"/>
+      <c r="ES25" s="5"/>
+      <c r="ET25" s="5"/>
+      <c r="EU25" s="5"/>
+      <c r="EV25" s="5"/>
     </row>
-    <row r="26" spans="1:152" x14ac:dyDescent="0.3">
-      <c r="BU26" s="3"/>
+    <row r="26" spans="73:73">
+      <c r="BU26" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>